--- a/Финансовая_модель_энергетика.xlsx
+++ b/Финансовая_модель_энергетика.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Допущения" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="330">
   <si>
     <t>Наименование</t>
   </si>
@@ -875,16 +875,7 @@
     <t>Капитальные вложения 150 строка лист расчет</t>
   </si>
   <si>
-    <t>delta баланса</t>
-  </si>
-  <si>
     <t>Расчет финансовых показателей</t>
-  </si>
-  <si>
-    <t>ROE</t>
-  </si>
-  <si>
-    <t>EBIT/проценты</t>
   </si>
   <si>
     <t>Х</t>
@@ -1003,12 +994,87 @@
   <si>
     <t>Анализ чувствит.</t>
   </si>
+  <si>
+    <t>1. Рентабельность</t>
+  </si>
+  <si>
+    <t>1.1 Рентабельность продаж (ROS)</t>
+  </si>
+  <si>
+    <t>1.2 Рентабельность активов (ROA)</t>
+  </si>
+  <si>
+    <t>1.3 Рентабельность собств. капит. (ROE)</t>
+  </si>
+  <si>
+    <t>Формула Дюпона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    коэф. налогового бремени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    коэф. процентного бремени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    рентабельность продаж (по EBIT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    оборачиваемость активов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    коэф. финансового  рычага</t>
+  </si>
+  <si>
+    <t>2. Ликвидность</t>
+  </si>
+  <si>
+    <t>2.1 Мгновенная ликвидность</t>
+  </si>
+  <si>
+    <t>2.2 Быстрая ликвидность</t>
+  </si>
+  <si>
+    <t>2.3 Текущая ликвидность</t>
+  </si>
+  <si>
+    <t>3. Оборачиваемость (деловая активность)</t>
+  </si>
+  <si>
+    <t>3.1 Оборачиваемость активов</t>
+  </si>
+  <si>
+    <t>3.2 Оборачиваемость ОС</t>
+  </si>
+  <si>
+    <t>3.3 Оборачиваемость запасов</t>
+  </si>
+  <si>
+    <t>3.4 Оборачиваемость ДЗ</t>
+  </si>
+  <si>
+    <t>3.5 Оборачиваемость КЗ</t>
+  </si>
+  <si>
+    <t>4. Финансовая устойчивость</t>
+  </si>
+  <si>
+    <t>4.1 Финансовый левередж</t>
+  </si>
+  <si>
+    <t>4.2 Долг/EBITDA</t>
+  </si>
+  <si>
+    <t>4.3 Чистый долг/EBITDA</t>
+  </si>
+  <si>
+    <t>4.4 EBIT/проценты</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\ \(#,##0.00\);\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0;\ \(#,##0\);\ \-"/>
@@ -1017,6 +1083,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1368,7 +1435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1416,15 +1483,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1485,7 +1543,7 @@
     <xf numFmtId="166" fontId="10" fillId="10" borderId="1"/>
     <xf numFmtId="170" fontId="15" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1882,10 +1940,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1910,11 +1965,11 @@
     <xf numFmtId="0" fontId="26" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,7 +1978,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1951,6 +2006,15 @@
     <xf numFmtId="10" fontId="31" fillId="16" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="31" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation 2" xfId="2"/>
@@ -1961,19 +2025,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2194,8 +2246,8 @@
   </sheetPr>
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B198" sqref="B198"/>
@@ -2547,59 +2599,59 @@
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="213">
+      <c r="F10" s="210">
         <f>'Сценарный анализ'!F25</f>
         <v>2.8929999999999997E-2</v>
       </c>
-      <c r="G10" s="213">
+      <c r="G10" s="210">
         <f>'Сценарный анализ'!G25</f>
         <v>4.4720000000000003E-2</v>
       </c>
-      <c r="H10" s="213">
+      <c r="H10" s="210">
         <f>'Сценарный анализ'!H25</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I10" s="213">
+      <c r="I10" s="210">
         <f>'Сценарный анализ'!I25</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J10" s="213">
+      <c r="J10" s="210">
         <f>'Сценарный анализ'!J25</f>
         <v>0.04</v>
       </c>
-      <c r="K10" s="213">
+      <c r="K10" s="210">
         <f>'Сценарный анализ'!K25</f>
         <v>3.9E-2</v>
       </c>
-      <c r="L10" s="213">
+      <c r="L10" s="210">
         <f>'Сценарный анализ'!L25</f>
         <v>0.04</v>
       </c>
-      <c r="M10" s="213">
+      <c r="M10" s="210">
         <f>'Сценарный анализ'!M25</f>
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="N10" s="213">
+      <c r="N10" s="210">
         <f>'Сценарный анализ'!N25</f>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="O10" s="213">
+      <c r="O10" s="210">
         <f>'Сценарный анализ'!O25</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P10" s="213">
+      <c r="P10" s="210">
         <f>'Сценарный анализ'!P25</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q10" s="213">
+      <c r="Q10" s="210">
         <f>'Сценарный анализ'!Q25</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="R10" s="213">
+      <c r="R10" s="210">
         <f>'Сценарный анализ'!R25</f>
         <v>0.03</v>
       </c>
-      <c r="S10" s="213">
+      <c r="S10" s="210">
         <f>'Сценарный анализ'!S25</f>
         <v>2.8999999999999998E-2</v>
       </c>
@@ -2625,59 +2677,59 @@
         <v>9</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="213">
+      <c r="F11" s="210">
         <f>'Сценарный анализ'!F26</f>
         <v>0.12125</v>
       </c>
-      <c r="G11" s="213">
+      <c r="G11" s="210">
         <f>'Сценарный анализ'!G26</f>
         <v>2.0110000000000003E-2</v>
       </c>
-      <c r="H11" s="213">
+      <c r="H11" s="210">
         <f>'Сценарный анализ'!H26</f>
         <v>-3.9E-2</v>
       </c>
-      <c r="I11" s="213">
+      <c r="I11" s="210">
         <f>'Сценарный анализ'!I26</f>
         <v>2.3E-2</v>
       </c>
-      <c r="J11" s="213">
+      <c r="J11" s="210">
         <f>'Сценарный анализ'!J26</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K11" s="213">
+      <c r="K11" s="210">
         <f>'Сценарный анализ'!K26</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L11" s="213">
+      <c r="L11" s="210">
         <f>'Сценарный анализ'!L26</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M11" s="213">
+      <c r="M11" s="210">
         <f>'Сценарный анализ'!M26</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N11" s="213">
+      <c r="N11" s="210">
         <f>'Сценарный анализ'!N26</f>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="O11" s="213">
+      <c r="O11" s="210">
         <f>'Сценарный анализ'!O26</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P11" s="213">
+      <c r="P11" s="210">
         <f>'Сценарный анализ'!P26</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q11" s="213">
+      <c r="Q11" s="210">
         <f>'Сценарный анализ'!Q26</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="R11" s="213">
+      <c r="R11" s="210">
         <f>'Сценарный анализ'!R26</f>
         <v>0.03</v>
       </c>
-      <c r="S11" s="213">
+      <c r="S11" s="210">
         <f>'Сценарный анализ'!S26</f>
         <v>2.8999999999999998E-2</v>
       </c>
@@ -3093,59 +3145,59 @@
         <v>9</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="213">
+      <c r="F17" s="210">
         <f>'Сценарный анализ'!F27</f>
         <v>2.4399999999999998E-2</v>
       </c>
-      <c r="G17" s="213">
+      <c r="G17" s="210">
         <f>'Сценарный анализ'!G27</f>
         <v>1.8120000000000001E-2</v>
       </c>
-      <c r="H17" s="213">
+      <c r="H17" s="210">
         <f>'Сценарный анализ'!H27</f>
         <v>1.2E-2</v>
       </c>
-      <c r="I17" s="213">
+      <c r="I17" s="210">
         <f>'Сценарный анализ'!I27</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J17" s="213">
+      <c r="J17" s="210">
         <f>'Сценарный анализ'!J27</f>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="K17" s="213">
+      <c r="K17" s="210">
         <f>'Сценарный анализ'!K27</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="L17" s="213">
+      <c r="L17" s="210">
         <f>'Сценарный анализ'!L27</f>
         <v>1.9E-2</v>
       </c>
-      <c r="M17" s="213">
+      <c r="M17" s="210">
         <f>'Сценарный анализ'!M27</f>
         <v>0.02</v>
       </c>
-      <c r="N17" s="213">
+      <c r="N17" s="210">
         <f>'Сценарный анализ'!N27</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O17" s="213">
+      <c r="O17" s="210">
         <f>'Сценарный анализ'!O27</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P17" s="213">
+      <c r="P17" s="210">
         <f>'Сценарный анализ'!P27</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q17" s="213">
+      <c r="Q17" s="210">
         <f>'Сценарный анализ'!Q27</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R17" s="213">
+      <c r="R17" s="210">
         <f>'Сценарный анализ'!R27</f>
         <v>0.02</v>
       </c>
-      <c r="S17" s="213">
+      <c r="S17" s="210">
         <f>'Сценарный анализ'!S27</f>
         <v>0.02</v>
       </c>
@@ -3171,59 +3223,59 @@
         <v>9</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="213">
+      <c r="F18" s="210">
         <f>'Сценарный анализ'!F28</f>
         <v>2.9220000000000003E-2</v>
       </c>
-      <c r="G18" s="213">
+      <c r="G18" s="210">
         <f>'Сценарный анализ'!G28</f>
         <v>1.67E-2</v>
       </c>
-      <c r="H18" s="213">
+      <c r="H18" s="210">
         <f>'Сценарный анализ'!H28</f>
         <v>1E-3</v>
       </c>
-      <c r="I18" s="213">
+      <c r="I18" s="210">
         <f>'Сценарный анализ'!I28</f>
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="210">
         <f>'Сценарный анализ'!J28</f>
         <v>0.02</v>
       </c>
-      <c r="K18" s="213">
+      <c r="K18" s="210">
         <f>'Сценарный анализ'!K28</f>
         <v>2.3E-2</v>
       </c>
-      <c r="L18" s="213">
+      <c r="L18" s="210">
         <f>'Сценарный анализ'!L28</f>
         <v>0.02</v>
       </c>
-      <c r="M18" s="213">
+      <c r="M18" s="210">
         <f>'Сценарный анализ'!M28</f>
         <v>0.02</v>
       </c>
-      <c r="N18" s="213">
+      <c r="N18" s="210">
         <f>'Сценарный анализ'!N28</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O18" s="213">
+      <c r="O18" s="210">
         <f>'Сценарный анализ'!O28</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P18" s="213">
+      <c r="P18" s="210">
         <f>'Сценарный анализ'!P28</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q18" s="213">
+      <c r="Q18" s="210">
         <f>'Сценарный анализ'!Q28</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R18" s="213">
+      <c r="R18" s="210">
         <f>'Сценарный анализ'!R28</f>
         <v>0.02</v>
       </c>
-      <c r="S18" s="213">
+      <c r="S18" s="210">
         <f>'Сценарный анализ'!S28</f>
         <v>0.02</v>
       </c>
@@ -3249,59 +3301,59 @@
         <v>30</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="231">
+      <c r="F19" s="228">
         <f>'Сценарный анализ'!F29</f>
         <v>62.668132999999997</v>
       </c>
-      <c r="G19" s="231">
+      <c r="G19" s="228">
         <f>'Сценарный анализ'!G29</f>
         <v>64.737657999999996</v>
       </c>
-      <c r="H19" s="231">
+      <c r="H19" s="228">
         <f>'Сценарный анализ'!H29</f>
         <v>72.040000000000006</v>
       </c>
-      <c r="I19" s="231">
+      <c r="I19" s="228">
         <f>'Сценарный анализ'!I29</f>
         <v>73.23</v>
       </c>
-      <c r="J19" s="231">
+      <c r="J19" s="228">
         <f>'Сценарный анализ'!J29</f>
         <v>71.91</v>
       </c>
-      <c r="K19" s="231">
+      <c r="K19" s="228">
         <f>'Сценарный анализ'!K29</f>
         <v>71.209999999999994</v>
       </c>
-      <c r="L19" s="231">
+      <c r="L19" s="228">
         <f>'Сценарный анализ'!L29</f>
         <v>72.510000000000005</v>
       </c>
-      <c r="M19" s="231">
+      <c r="M19" s="228">
         <f>'Сценарный анализ'!M29</f>
         <v>74.08</v>
       </c>
-      <c r="N19" s="231">
+      <c r="N19" s="228">
         <f>'Сценарный анализ'!N29</f>
         <v>75.14</v>
       </c>
-      <c r="O19" s="231">
+      <c r="O19" s="228">
         <f>'Сценарный анализ'!O29</f>
         <v>76.150000000000006</v>
       </c>
-      <c r="P19" s="231">
+      <c r="P19" s="228">
         <f>'Сценарный анализ'!P29</f>
         <v>77.099999999999994</v>
       </c>
-      <c r="Q19" s="231">
+      <c r="Q19" s="228">
         <f>'Сценарный анализ'!Q29</f>
         <v>77.98</v>
       </c>
-      <c r="R19" s="231">
+      <c r="R19" s="228">
         <f>'Сценарный анализ'!R29</f>
         <v>78.8</v>
       </c>
-      <c r="S19" s="231">
+      <c r="S19" s="228">
         <f>'Сценарный анализ'!S29</f>
         <v>79.63</v>
       </c>
@@ -9870,20 +9922,20 @@
     <row r="198" spans="1:26" ht="12" customHeight="1" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E198" s="213">
+        <v>304</v>
+      </c>
+      <c r="E198" s="210">
         <f>'Анализ чувствительности'!C3</f>
         <v>0.11</v>
       </c>
-      <c r="F198" s="190" t="s">
-        <v>300</v>
+      <c r="F198" s="187" t="s">
+        <v>297</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -10156,9 +10208,9 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E207" s="213">
+        <v>304</v>
+      </c>
+      <c r="E207" s="210">
         <f>'Анализ чувствительности'!C7</f>
         <v>0.03</v>
       </c>
@@ -44580,11 +44632,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T48" sqref="T48"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -46763,53 +46815,21 @@
       </c>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="147" t="s">
-        <v>265</v>
-      </c>
-      <c r="I47" s="172">
-        <f>I46/I40</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="172">
-        <f t="shared" ref="J47:R47" si="26">J46/J40</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="172">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+      <c r="B47" s="147"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="172"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="172"/>
+      <c r="N47" s="172"/>
+      <c r="O47" s="172"/>
+      <c r="P47" s="172"/>
+      <c r="Q47" s="172"/>
+      <c r="R47" s="172"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="236"/>
-      <c r="C48" s="220"/>
+      <c r="B48" s="233"/>
+      <c r="C48" s="217"/>
       <c r="I48" s="172"/>
       <c r="J48" s="172"/>
       <c r="K48" s="172"/>
@@ -46823,7 +46843,7 @@
     </row>
     <row r="53" spans="2:18" ht="20.25">
       <c r="B53" s="160" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C53" s="150"/>
       <c r="D53" s="150"/>
@@ -46843,129 +46863,1374 @@
       <c r="R53" s="178"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="183" t="s">
-        <v>267</v>
-      </c>
-      <c r="C54" s="183" t="s">
+      <c r="B54" s="237" t="s">
+        <v>305</v>
+      </c>
+      <c r="C54" s="237"/>
+      <c r="D54" s="239"/>
+      <c r="E54" s="239"/>
+      <c r="F54" s="239"/>
+      <c r="G54" s="242"/>
+      <c r="H54" s="242"/>
+      <c r="I54" s="242"/>
+      <c r="J54" s="242"/>
+      <c r="K54" s="242"/>
+      <c r="L54" s="242"/>
+      <c r="M54" s="242"/>
+      <c r="N54" s="242"/>
+      <c r="O54" s="242"/>
+      <c r="P54" s="242"/>
+      <c r="Q54" s="242"/>
+      <c r="R54" s="242"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="234" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="180"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="182">
-        <f>G14/AVERAGE(F41:G41)</f>
+      <c r="D55" s="215"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="241">
+        <f>F14/F6</f>
+        <v>0.18367571356369608</v>
+      </c>
+      <c r="G55" s="241">
+        <f t="shared" ref="G55:R55" si="26">G14/G6</f>
+        <v>0.12734009064934348</v>
+      </c>
+      <c r="H55" s="241">
+        <f t="shared" si="26"/>
+        <v>0.10547675394426401</v>
+      </c>
+      <c r="I55" s="241">
+        <f t="shared" si="26"/>
+        <v>0.18371216971688242</v>
+      </c>
+      <c r="J55" s="241">
+        <f t="shared" si="26"/>
+        <v>0.25438581876567695</v>
+      </c>
+      <c r="K55" s="241">
+        <f t="shared" si="26"/>
+        <v>0.26386138436553253</v>
+      </c>
+      <c r="L55" s="241">
+        <f t="shared" si="26"/>
+        <v>0.27001776365378921</v>
+      </c>
+      <c r="M55" s="241">
+        <f t="shared" si="26"/>
+        <v>0.28380322096431426</v>
+      </c>
+      <c r="N55" s="241">
+        <f t="shared" si="26"/>
+        <v>0.30194479827609355</v>
+      </c>
+      <c r="O55" s="241">
+        <f t="shared" si="26"/>
+        <v>2.7873031853809887E-2</v>
+      </c>
+      <c r="P55" s="241">
+        <f t="shared" si="26"/>
+        <v>2.9896152863673184E-2</v>
+      </c>
+      <c r="Q55" s="241">
+        <f t="shared" si="26"/>
+        <v>3.5448934665023128E-2</v>
+      </c>
+      <c r="R55" s="241">
+        <f t="shared" si="26"/>
+        <v>3.5772784802178499E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="234" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" s="234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="180">
+        <f>F14/(AVERAGE(E40:F40))</f>
+        <v>8.1608251486920719E-2</v>
+      </c>
+      <c r="G56" s="180">
+        <f t="shared" ref="G56:R56" si="27">G14/(AVERAGE(F40:G40))</f>
+        <v>5.1885110172010536E-2</v>
+      </c>
+      <c r="H56" s="180">
+        <f t="shared" si="27"/>
+        <v>4.1023743381780081E-2</v>
+      </c>
+      <c r="I56" s="180">
+        <f t="shared" si="27"/>
+        <v>7.1033733125772242E-2</v>
+      </c>
+      <c r="J56" s="180">
+        <f t="shared" si="27"/>
+        <v>0.10226768696790192</v>
+      </c>
+      <c r="K56" s="180">
+        <f t="shared" si="27"/>
+        <v>0.10322140820434651</v>
+      </c>
+      <c r="L56" s="180">
+        <f t="shared" si="27"/>
+        <v>0.10307359395023551</v>
+      </c>
+      <c r="M56" s="180">
+        <f t="shared" si="27"/>
+        <v>0.10687445588175565</v>
+      </c>
+      <c r="N56" s="180">
+        <f t="shared" si="27"/>
+        <v>0.10858878697720674</v>
+      </c>
+      <c r="O56" s="180">
+        <f t="shared" si="27"/>
+        <v>7.4889205808069247E-3</v>
+      </c>
+      <c r="P56" s="180">
+        <f t="shared" si="27"/>
+        <v>8.246445456291409E-3</v>
+      </c>
+      <c r="Q56" s="180">
+        <f t="shared" si="27"/>
+        <v>9.9723849819132789E-3</v>
+      </c>
+      <c r="R56" s="180">
+        <f t="shared" si="27"/>
+        <v>1.0256247973199906E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="234" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" s="234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="180">
+        <f>F14/F41:G41</f>
+        <v>14.264105627015251</v>
+      </c>
+      <c r="G57" s="180">
+        <f t="shared" ref="G57:R57" si="28">G14/G41:H41</f>
         <v>9.3159755382921201</v>
       </c>
-      <c r="H54" s="182">
-        <f t="shared" ref="H54:R54" si="27">H14/AVERAGE(G41:H41)</f>
+      <c r="H57" s="180">
+        <f t="shared" si="28"/>
         <v>7.7173460782222287</v>
       </c>
-      <c r="I54" s="182">
-        <f t="shared" si="27"/>
+      <c r="I57" s="180">
+        <f t="shared" si="28"/>
         <v>14.14241031592881</v>
       </c>
-      <c r="J54" s="182">
-        <f t="shared" si="27"/>
+      <c r="J57" s="180">
+        <f t="shared" si="28"/>
         <v>21.629966261759524</v>
       </c>
-      <c r="K54" s="182">
-        <f t="shared" si="27"/>
+      <c r="K57" s="180">
+        <f t="shared" si="28"/>
         <v>22.940609376512676</v>
       </c>
-      <c r="L54" s="182">
-        <f t="shared" si="27"/>
+      <c r="L57" s="180">
+        <f t="shared" si="28"/>
         <v>24.056895977923688</v>
       </c>
-      <c r="M54" s="182">
-        <f t="shared" si="27"/>
+      <c r="M57" s="180">
+        <f t="shared" si="28"/>
         <v>26.219312086594577</v>
       </c>
-      <c r="N54" s="182">
-        <f t="shared" si="27"/>
+      <c r="N57" s="180">
+        <f t="shared" si="28"/>
         <v>28.899563322141908</v>
       </c>
-      <c r="O54" s="182">
-        <f t="shared" si="27"/>
+      <c r="O57" s="180">
+        <f t="shared" si="28"/>
         <v>2.1102756671326315</v>
       </c>
-      <c r="P54" s="182">
-        <f t="shared" si="27"/>
+      <c r="P57" s="180">
+        <f t="shared" si="28"/>
         <v>2.3433148258232621</v>
       </c>
-      <c r="Q54" s="182">
-        <f t="shared" si="27"/>
+      <c r="Q57" s="180">
+        <f t="shared" si="28"/>
         <v>2.8611339254896562</v>
       </c>
-      <c r="R54" s="182">
-        <f t="shared" si="27"/>
+      <c r="R57" s="180">
+        <f t="shared" si="28"/>
         <v>2.9738905004943263</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="159" t="s">
-        <v>268</v>
-      </c>
-      <c r="C55" s="183" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="181"/>
-      <c r="E55" s="181"/>
-      <c r="F55" s="167">
-        <f>IFERROR(F10/(-F11),"Inf")</f>
+    <row r="58" spans="2:18">
+      <c r="B58" s="234"/>
+      <c r="C58" s="234"/>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="237" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="237"/>
+      <c r="D59" s="239"/>
+      <c r="E59" s="239"/>
+      <c r="F59" s="238">
+        <f>PRODUCT(F60:F64)</f>
+        <v>14.264105627015251</v>
+      </c>
+      <c r="G59" s="238">
+        <f t="shared" ref="G59:R59" si="29">PRODUCT(G60:G64)</f>
+        <v>9.3159755382921183</v>
+      </c>
+      <c r="H59" s="238">
+        <f t="shared" si="29"/>
+        <v>7.7173460782222278</v>
+      </c>
+      <c r="I59" s="238">
+        <f t="shared" si="29"/>
+        <v>14.142410315928808</v>
+      </c>
+      <c r="J59" s="238">
+        <f t="shared" si="29"/>
+        <v>21.62996626175952</v>
+      </c>
+      <c r="K59" s="238">
+        <f t="shared" si="29"/>
+        <v>22.940609376512679</v>
+      </c>
+      <c r="L59" s="238">
+        <f t="shared" si="29"/>
+        <v>24.056895977923688</v>
+      </c>
+      <c r="M59" s="238">
+        <f t="shared" si="29"/>
+        <v>26.219312086594581</v>
+      </c>
+      <c r="N59" s="238">
+        <f t="shared" si="29"/>
+        <v>28.899563322141912</v>
+      </c>
+      <c r="O59" s="238">
+        <f t="shared" si="29"/>
+        <v>2.1102756671326315</v>
+      </c>
+      <c r="P59" s="238">
+        <f t="shared" si="29"/>
+        <v>2.3433148258232626</v>
+      </c>
+      <c r="Q59" s="238">
+        <f t="shared" si="29"/>
+        <v>2.8611339254896566</v>
+      </c>
+      <c r="R59" s="238">
+        <f t="shared" si="29"/>
+        <v>2.9738905004943263</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="234" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" s="234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="215"/>
+      <c r="E60" s="215"/>
+      <c r="F60" s="241">
+        <f>F14/F12</f>
+        <v>0.8</v>
+      </c>
+      <c r="G60" s="241">
+        <f t="shared" ref="G60:R60" si="30">G14/G12</f>
+        <v>0.8</v>
+      </c>
+      <c r="H60" s="241">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="I60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="J60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="K60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="L60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="M60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="N60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="O60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="P60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+      <c r="R60" s="241">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="234" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" s="234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="180">
+        <f>F12/F10</f>
+        <v>0.83591287693583283</v>
+      </c>
+      <c r="G61" s="180">
+        <f t="shared" ref="G61:R61" si="31">G12/G10</f>
+        <v>0.76890016068861333</v>
+      </c>
+      <c r="H61" s="180">
+        <f t="shared" si="31"/>
+        <v>0.73377314208592714</v>
+      </c>
+      <c r="I61" s="180">
+        <f t="shared" si="31"/>
+        <v>0.77102245955360293</v>
+      </c>
+      <c r="J61" s="180">
+        <f t="shared" si="31"/>
+        <v>0.83739816159891889</v>
+      </c>
+      <c r="K61" s="180">
+        <f t="shared" si="31"/>
+        <v>0.87577456655537633</v>
+      </c>
+      <c r="L61" s="180">
+        <f t="shared" si="31"/>
+        <v>0.91475390775705745</v>
+      </c>
+      <c r="M61" s="180">
+        <f t="shared" si="31"/>
+        <v>0.95767284216729509</v>
+      </c>
+      <c r="N61" s="180">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="180">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="P61" s="180">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="180">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="R61" s="180">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="234" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="180">
+        <f>F10/F6</f>
+        <v>0.27466336300050143</v>
+      </c>
+      <c r="G62" s="180">
+        <f t="shared" ref="G62:R62" si="32">G10/G6</f>
+        <v>0.20701662120752445</v>
+      </c>
+      <c r="H62" s="180">
+        <f t="shared" si="32"/>
+        <v>0.17968215906012328</v>
+      </c>
+      <c r="I62" s="180">
+        <f t="shared" si="32"/>
+        <v>0.19855903400363314</v>
+      </c>
+      <c r="J62" s="180">
+        <f t="shared" si="32"/>
+        <v>0.25315100035562876</v>
+      </c>
+      <c r="K62" s="180">
+        <f t="shared" si="32"/>
+        <v>0.25107430081708537</v>
+      </c>
+      <c r="L62" s="180">
+        <f t="shared" si="32"/>
+        <v>0.24598397573020736</v>
+      </c>
+      <c r="M62" s="180">
+        <f t="shared" si="32"/>
+        <v>0.24695561336134675</v>
+      </c>
+      <c r="N62" s="180">
+        <f t="shared" si="32"/>
+        <v>0.25162066523007798</v>
+      </c>
+      <c r="O62" s="180">
+        <f t="shared" si="32"/>
+        <v>2.322752654484157E-2</v>
+      </c>
+      <c r="P62" s="180">
+        <f t="shared" si="32"/>
+        <v>2.4913460719727654E-2</v>
+      </c>
+      <c r="Q62" s="180">
+        <f t="shared" si="32"/>
+        <v>2.9540778887519274E-2</v>
+      </c>
+      <c r="R62" s="180">
+        <f t="shared" si="32"/>
+        <v>2.9810654001815418E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="234" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="235">
+        <f>F6/F40</f>
+        <v>0.44430616276669666</v>
+      </c>
+      <c r="G63" s="235">
+        <f t="shared" ref="G63:R63" si="33">G6/AVERAGE(F40:G40)</f>
+        <v>0.40745306452534735</v>
+      </c>
+      <c r="H63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.3889363470879833</v>
+      </c>
+      <c r="I63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.386657744205198</v>
+      </c>
+      <c r="J63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.4020180349050983</v>
+      </c>
+      <c r="K63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.39119558344070465</v>
+      </c>
+      <c r="L63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.38172893722056811</v>
+      </c>
+      <c r="M63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.37657943246244607</v>
+      </c>
+      <c r="N63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.35963125576985389</v>
+      </c>
+      <c r="O63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.26867979845483819</v>
+      </c>
+      <c r="P63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.27583634235131521</v>
+      </c>
+      <c r="Q63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.28131691618233212</v>
+      </c>
+      <c r="R63" s="235">
+        <f t="shared" si="33"/>
+        <v>0.28670532724573677</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="B64" s="234" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="236">
+        <f>AVERAGE(E40:F40)/AVERAGE(E41:F41)</f>
+        <v>174.78754129784716</v>
+      </c>
+      <c r="G64" s="236">
+        <f t="shared" ref="G64:R64" si="34">AVERAGE(F40:G40)/AVERAGE(F41:G41)</f>
+        <v>179.55007722654176</v>
+      </c>
+      <c r="H64" s="236">
+        <f t="shared" si="34"/>
+        <v>188.1190121145732</v>
+      </c>
+      <c r="I64" s="236">
+        <f t="shared" si="34"/>
+        <v>199.0942851178647</v>
+      </c>
+      <c r="J64" s="236">
+        <f t="shared" si="34"/>
+        <v>211.50342696758534</v>
+      </c>
+      <c r="K64" s="236">
+        <f t="shared" si="34"/>
+        <v>222.24662282360413</v>
+      </c>
+      <c r="L64" s="236">
+        <f t="shared" si="34"/>
+        <v>233.39533488604741</v>
+      </c>
+      <c r="M64" s="236">
+        <f t="shared" si="34"/>
+        <v>245.32814572270894</v>
+      </c>
+      <c r="N64" s="236">
+        <f t="shared" si="34"/>
+        <v>266.13763839362213</v>
+      </c>
+      <c r="O64" s="236">
+        <f t="shared" si="34"/>
+        <v>281.78635951100591</v>
+      </c>
+      <c r="P64" s="236">
+        <f t="shared" si="34"/>
+        <v>284.16059237201307</v>
+      </c>
+      <c r="Q64" s="236">
+        <f t="shared" si="34"/>
+        <v>286.9056831117972</v>
+      </c>
+      <c r="R64" s="236">
+        <f t="shared" si="34"/>
+        <v>289.95891170584531</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="B65" s="234"/>
+      <c r="C65" s="234"/>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="237" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="237"/>
+      <c r="D66" s="239"/>
+      <c r="E66" s="239"/>
+      <c r="F66" s="239"/>
+      <c r="G66" s="239"/>
+      <c r="H66" s="239"/>
+      <c r="I66" s="239"/>
+      <c r="J66" s="239"/>
+      <c r="K66" s="239"/>
+      <c r="L66" s="239"/>
+      <c r="M66" s="239"/>
+      <c r="N66" s="239"/>
+      <c r="O66" s="239"/>
+      <c r="P66" s="239"/>
+      <c r="Q66" s="239"/>
+      <c r="R66" s="239"/>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="234" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="240">
+        <f>IFERROR(F39/F43,"Inf")</f>
+        <v>0.4</v>
+      </c>
+      <c r="G67" s="240">
+        <f t="shared" ref="G67:R67" si="35">IFERROR(G39/G43,"Inf")</f>
+        <v>0.57059784223639365</v>
+      </c>
+      <c r="H67" s="240">
+        <f t="shared" si="35"/>
+        <v>0.87835202184031225</v>
+      </c>
+      <c r="I67" s="240">
+        <f t="shared" si="35"/>
+        <v>1.156823154575888</v>
+      </c>
+      <c r="J67" s="240">
+        <f t="shared" si="35"/>
+        <v>1.9699478427785468</v>
+      </c>
+      <c r="K67" s="240">
+        <f t="shared" si="35"/>
+        <v>3.5894445420766004</v>
+      </c>
+      <c r="L67" s="240">
+        <f t="shared" si="35"/>
+        <v>7.6812319916552445</v>
+      </c>
+      <c r="M67" s="240" t="str">
+        <f t="shared" si="35"/>
+        <v>Inf</v>
+      </c>
+      <c r="N67" s="240" t="str">
+        <f t="shared" si="35"/>
+        <v>Inf</v>
+      </c>
+      <c r="O67" s="240" t="str">
+        <f t="shared" si="35"/>
+        <v>Inf</v>
+      </c>
+      <c r="P67" s="240" t="str">
+        <f t="shared" si="35"/>
+        <v>Inf</v>
+      </c>
+      <c r="Q67" s="240" t="str">
+        <f t="shared" si="35"/>
+        <v>Inf</v>
+      </c>
+      <c r="R67" s="240" t="str">
+        <f t="shared" si="35"/>
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="234" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="240">
+        <f>IFERROR((F39+F37)/F43,"Inf")</f>
+        <v>0.52758879999999997</v>
+      </c>
+      <c r="G68" s="240">
+        <f t="shared" ref="G68:R68" si="36">IFERROR((G39+G37)/G43,"Inf")</f>
+        <v>0.6886176092739974</v>
+      </c>
+      <c r="H68" s="240">
+        <f t="shared" si="36"/>
+        <v>1.0011563053591142</v>
+      </c>
+      <c r="I68" s="240">
+        <f t="shared" si="36"/>
+        <v>1.2847668076935554</v>
+      </c>
+      <c r="J68" s="240">
+        <f t="shared" si="36"/>
+        <v>2.1523467924384128</v>
+      </c>
+      <c r="K68" s="240">
+        <f t="shared" si="36"/>
+        <v>3.8601530137524049</v>
+      </c>
+      <c r="L68" s="240">
+        <f t="shared" si="36"/>
+        <v>8.2179010487350865</v>
+      </c>
+      <c r="M68" s="184" t="str">
+        <f t="shared" si="36"/>
+        <v>Inf</v>
+      </c>
+      <c r="N68" s="184" t="str">
+        <f t="shared" si="36"/>
+        <v>Inf</v>
+      </c>
+      <c r="O68" s="184" t="str">
+        <f t="shared" si="36"/>
+        <v>Inf</v>
+      </c>
+      <c r="P68" s="184" t="str">
+        <f t="shared" si="36"/>
+        <v>Inf</v>
+      </c>
+      <c r="Q68" s="184" t="str">
+        <f t="shared" si="36"/>
+        <v>Inf</v>
+      </c>
+      <c r="R68" s="184" t="str">
+        <f t="shared" si="36"/>
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="B69" s="234" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="240">
+        <f>IFERROR((F39+F38+F37)/F43,"Inf")</f>
+        <v>0.55746600000000002</v>
+      </c>
+      <c r="G69" s="240">
+        <f t="shared" ref="G69:R69" si="37">IFERROR((G39+G38+G37)/G43,"Inf")</f>
+        <v>0.71346535497872654</v>
+      </c>
+      <c r="H69" s="240">
+        <f t="shared" si="37"/>
+        <v>1.0285187782114786</v>
+      </c>
+      <c r="I69" s="240">
+        <f t="shared" si="37"/>
+        <v>1.3128135427492738</v>
+      </c>
+      <c r="J69" s="240">
+        <f t="shared" si="37"/>
+        <v>2.1896941798851186</v>
+      </c>
+      <c r="K69" s="240">
+        <f t="shared" si="37"/>
+        <v>3.9160719769925136</v>
+      </c>
+      <c r="L69" s="240">
+        <f t="shared" si="37"/>
+        <v>8.329759569593687</v>
+      </c>
+      <c r="M69" s="184" t="str">
+        <f t="shared" si="37"/>
+        <v>Inf</v>
+      </c>
+      <c r="N69" s="184" t="str">
+        <f t="shared" si="37"/>
+        <v>Inf</v>
+      </c>
+      <c r="O69" s="184" t="str">
+        <f t="shared" si="37"/>
+        <v>Inf</v>
+      </c>
+      <c r="P69" s="184" t="str">
+        <f t="shared" si="37"/>
+        <v>Inf</v>
+      </c>
+      <c r="Q69" s="184" t="str">
+        <f t="shared" si="37"/>
+        <v>Inf</v>
+      </c>
+      <c r="R69" s="184" t="str">
+        <f t="shared" si="37"/>
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="B70" s="234"/>
+      <c r="C70" s="234"/>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" s="237" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="237"/>
+      <c r="D71" s="239"/>
+      <c r="E71" s="239"/>
+      <c r="F71" s="239"/>
+      <c r="G71" s="239"/>
+      <c r="H71" s="239"/>
+      <c r="I71" s="239"/>
+      <c r="J71" s="239"/>
+      <c r="K71" s="239"/>
+      <c r="L71" s="239"/>
+      <c r="M71" s="239"/>
+      <c r="N71" s="239"/>
+      <c r="O71" s="239"/>
+      <c r="P71" s="239"/>
+      <c r="Q71" s="239"/>
+      <c r="R71" s="239"/>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="234" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="184">
+        <f>F6/AVERAGE(E40:F40)</f>
+        <v>0.44430616276669666</v>
+      </c>
+      <c r="G72" s="184">
+        <f t="shared" ref="G72:R72" si="38">G6/AVERAGE(F40:G40)</f>
+        <v>0.40745306452534735</v>
+      </c>
+      <c r="H72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.3889363470879833</v>
+      </c>
+      <c r="I72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.386657744205198</v>
+      </c>
+      <c r="J72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.4020180349050983</v>
+      </c>
+      <c r="K72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.39119558344070465</v>
+      </c>
+      <c r="L72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.38172893722056811</v>
+      </c>
+      <c r="M72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.37657943246244607</v>
+      </c>
+      <c r="N72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.35963125576985389</v>
+      </c>
+      <c r="O72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.26867979845483819</v>
+      </c>
+      <c r="P72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.27583634235131521</v>
+      </c>
+      <c r="Q72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.28131691618233212</v>
+      </c>
+      <c r="R72" s="184">
+        <f t="shared" si="38"/>
+        <v>0.28670532724573677</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" s="234" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="184">
+        <f>F6/AVERAGE(E36:F36)</f>
+        <v>0.52860213609944973</v>
+      </c>
+      <c r="G73" s="184">
+        <f t="shared" ref="G73:R73" si="39">G6/AVERAGE(F36:G36)</f>
+        <v>0.49505898417635869</v>
+      </c>
+      <c r="H73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.50609822648265368</v>
+      </c>
+      <c r="I73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.54767225413084097</v>
+      </c>
+      <c r="J73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.62396738297353194</v>
+      </c>
+      <c r="K73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.68149112493069031</v>
+      </c>
+      <c r="L73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.72035659149302966</v>
+      </c>
+      <c r="M73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.77295808805695165</v>
+      </c>
+      <c r="N73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.86759320314004496</v>
+      </c>
+      <c r="O73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.71020498718821778</v>
+      </c>
+      <c r="P73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.76402481048423376</v>
+      </c>
+      <c r="Q73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.86976955277495838</v>
+      </c>
+      <c r="R73" s="184">
+        <f t="shared" si="39"/>
+        <v>0.93123231758668601</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="234" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="158">
+        <f>F6/AVERAGE(E38:F38)</f>
+        <v>51.985582165311342</v>
+      </c>
+      <c r="G74" s="158">
+        <f t="shared" ref="G74:R74" si="40">G6/AVERAGE(F38:G38)</f>
+        <v>53.47340468564051</v>
+      </c>
+      <c r="H74" s="158">
+        <f t="shared" si="40"/>
+        <v>56.055173421373134</v>
+      </c>
+      <c r="I74" s="158">
+        <f t="shared" si="40"/>
+        <v>55.572963465222458</v>
+      </c>
+      <c r="J74" s="158">
+        <f t="shared" si="40"/>
+        <v>59.68729380008736</v>
+      </c>
+      <c r="K74" s="158">
+        <f t="shared" si="40"/>
+        <v>59.160238991966061</v>
+      </c>
+      <c r="L74" s="158">
+        <f t="shared" si="40"/>
+        <v>58.69961175127851</v>
+      </c>
+      <c r="M74" s="158">
+        <f t="shared" si="40"/>
+        <v>58.73103709356009</v>
+      </c>
+      <c r="N74" s="158">
+        <f t="shared" si="40"/>
+        <v>58.656059059076156</v>
+      </c>
+      <c r="O74" s="158">
+        <f t="shared" si="40"/>
+        <v>44.830254266726897</v>
+      </c>
+      <c r="P74" s="158">
+        <f t="shared" si="40"/>
+        <v>44.85761591924193</v>
+      </c>
+      <c r="Q74" s="158">
+        <f t="shared" si="40"/>
+        <v>44.738824303963227</v>
+      </c>
+      <c r="R74" s="158">
+        <f t="shared" si="40"/>
+        <v>44.744823438499004</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="234" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="158">
+        <f>F6/AVERAGE(E37:F37)</f>
+        <v>12.173354051997041</v>
+      </c>
+      <c r="G75" s="158">
+        <f t="shared" ref="G75:R75" si="41">G6/AVERAGE(F37:G37)</f>
+        <v>11.914605436465314</v>
+      </c>
+      <c r="H75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.152660204925043</v>
+      </c>
+      <c r="I75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.280276073326421</v>
+      </c>
+      <c r="J75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.631330817660825</v>
+      </c>
+      <c r="K75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.16754462922192</v>
+      </c>
+      <c r="L75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.1807316792567</v>
+      </c>
+      <c r="M75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.251906109410704</v>
+      </c>
+      <c r="N75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.246408253674071</v>
+      </c>
+      <c r="O75" s="158">
+        <f t="shared" si="41"/>
+        <v>10.62957486278936</v>
+      </c>
+      <c r="P75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.242261557765097</v>
+      </c>
+      <c r="Q75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.2098414004882</v>
+      </c>
+      <c r="R75" s="158">
+        <f t="shared" si="41"/>
+        <v>12.211469758932052</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="B76" s="234" t="s">
+        <v>324</v>
+      </c>
+      <c r="C76" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F76" s="158">
+        <f>F6/AVERAGE(E44:F44)</f>
+        <v>24.021562518139092</v>
+      </c>
+      <c r="G76" s="158">
+        <f t="shared" ref="G76:R76" si="42">G6/AVERAGE(F44:G44)</f>
+        <v>21.920444071891744</v>
+      </c>
+      <c r="H76" s="158">
+        <f t="shared" si="42"/>
+        <v>21.584788062905453</v>
+      </c>
+      <c r="I76" s="158">
+        <f t="shared" si="42"/>
+        <v>22.410143605847956</v>
+      </c>
+      <c r="J76" s="158">
+        <f t="shared" si="42"/>
+        <v>23.692862612288433</v>
+      </c>
+      <c r="K76" s="158">
+        <f t="shared" si="42"/>
+        <v>23.483648282689433</v>
+      </c>
+      <c r="L76" s="158">
+        <f t="shared" si="42"/>
+        <v>23.300802366343465</v>
+      </c>
+      <c r="M76" s="158">
+        <f t="shared" si="42"/>
+        <v>23.313276651401779</v>
+      </c>
+      <c r="N76" s="158">
+        <f t="shared" si="42"/>
+        <v>23.283514131493988</v>
+      </c>
+      <c r="O76" s="158">
+        <f t="shared" si="42"/>
+        <v>17.795362925533791</v>
+      </c>
+      <c r="P76" s="158">
+        <f t="shared" si="42"/>
+        <v>17.806224129528982</v>
+      </c>
+      <c r="Q76" s="158">
+        <f t="shared" si="42"/>
+        <v>17.759069815082817</v>
+      </c>
+      <c r="R76" s="158">
+        <f t="shared" si="42"/>
+        <v>17.761451170666216</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="B77" s="234"/>
+      <c r="C77" s="234"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="237" t="s">
+        <v>325</v>
+      </c>
+      <c r="C78" s="237"/>
+      <c r="D78" s="239"/>
+      <c r="E78" s="239"/>
+      <c r="F78" s="239"/>
+      <c r="G78" s="239"/>
+      <c r="H78" s="239"/>
+      <c r="I78" s="239"/>
+      <c r="J78" s="239"/>
+      <c r="K78" s="239"/>
+      <c r="L78" s="239"/>
+      <c r="M78" s="239"/>
+      <c r="N78" s="239"/>
+      <c r="O78" s="239"/>
+      <c r="P78" s="239"/>
+      <c r="Q78" s="239"/>
+      <c r="R78" s="239"/>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" s="234" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79" s="240">
+        <f>F43/(F41+F42)</f>
+        <v>0.41133762791448519</v>
+      </c>
+      <c r="G79" s="240">
+        <f t="shared" ref="G79:R79" si="43">G43/(G41+G42)</f>
+        <v>0.38205671508147021</v>
+      </c>
+      <c r="H79" s="240">
+        <f t="shared" si="43"/>
+        <v>0.36078167995794574</v>
+      </c>
+      <c r="I79" s="240">
+        <f t="shared" si="43"/>
+        <v>0.32737429498967657</v>
+      </c>
+      <c r="J79" s="240">
+        <f t="shared" si="43"/>
+        <v>0.22217548496678013</v>
+      </c>
+      <c r="K79" s="240">
+        <f t="shared" si="43"/>
+        <v>0.13526994856807961</v>
+      </c>
+      <c r="L79" s="240">
+        <f t="shared" si="43"/>
+        <v>6.2323095278585212E-2</v>
+      </c>
+      <c r="M79" s="240">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="240">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="240">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="240">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="240">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="240">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="B80" s="234" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="240">
+        <f>F43/F8</f>
+        <v>1.6661444856552909</v>
+      </c>
+      <c r="G80" s="240">
+        <f t="shared" ref="G80:R80" si="44">G43/G8</f>
+        <v>2.0475133403168519</v>
+      </c>
+      <c r="H80" s="240">
+        <f t="shared" si="44"/>
+        <v>2.2235508342904517</v>
+      </c>
+      <c r="I80" s="240">
+        <f t="shared" si="44"/>
+        <v>2.008956606672172</v>
+      </c>
+      <c r="J80" s="240">
+        <f t="shared" si="44"/>
+        <v>1.2327774172539856</v>
+      </c>
+      <c r="K80" s="240">
+        <f t="shared" si="44"/>
+        <v>0.83941105340012145</v>
+      </c>
+      <c r="L80" s="240">
+        <f t="shared" si="44"/>
+        <v>0.4281806101578452</v>
+      </c>
+      <c r="M80" s="240">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="240">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="240">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="240">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="240">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="240">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18">
+      <c r="B81" s="234" t="s">
+        <v>328</v>
+      </c>
+      <c r="C81" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" s="240">
+        <f>MAX(F43-F39,0)/F8</f>
+        <v>0.99968669139317468</v>
+      </c>
+      <c r="G81" s="240">
+        <f t="shared" ref="G81:R81" si="45">MAX(G43-G39,0)/G8</f>
+        <v>0.87920664638182555</v>
+      </c>
+      <c r="H81" s="240">
+        <f t="shared" si="45"/>
+        <v>0.27049046332672039</v>
+      </c>
+      <c r="I81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="240">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18">
+      <c r="B82" s="234" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" s="240">
+        <f>IFERROR(F10/-F11,"Inf")</f>
         <v>6.0943234382197318</v>
       </c>
-      <c r="G55" s="167">
-        <f t="shared" ref="G55:R55" si="28">IFERROR(G10/(-G11),"Inf")</f>
+      <c r="G82" s="240">
+        <f t="shared" ref="G82:R82" si="46">IFERROR(G10/-G11,"Inf")</f>
         <v>4.3271341208186129</v>
       </c>
-      <c r="H55" s="167">
-        <f t="shared" si="28"/>
+      <c r="H82" s="240">
+        <f t="shared" si="46"/>
         <v>3.7561950279365095</v>
       </c>
-      <c r="I55" s="167">
-        <f t="shared" si="28"/>
+      <c r="I82" s="240">
+        <f t="shared" si="46"/>
         <v>4.367240551411621</v>
       </c>
-      <c r="J55" s="167">
-        <f t="shared" si="28"/>
+      <c r="J82" s="240">
+        <f t="shared" si="46"/>
         <v>6.1499919670855991</v>
       </c>
-      <c r="K55" s="167">
-        <f t="shared" si="28"/>
+      <c r="K82" s="240">
+        <f t="shared" si="46"/>
         <v>8.0498813509535729</v>
       </c>
-      <c r="L55" s="167">
-        <f t="shared" si="28"/>
+      <c r="L82" s="240">
+        <f t="shared" si="46"/>
         <v>11.73074300168626</v>
       </c>
-      <c r="M55" s="167">
-        <f t="shared" si="28"/>
+      <c r="M82" s="240">
+        <f t="shared" si="46"/>
         <v>23.625493683096572</v>
       </c>
-      <c r="N55" s="167" t="str">
-        <f t="shared" si="28"/>
+      <c r="N82" s="240" t="str">
+        <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="O55" s="167" t="str">
-        <f t="shared" si="28"/>
+      <c r="O82" s="240" t="str">
+        <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="P55" s="167" t="str">
-        <f t="shared" si="28"/>
+      <c r="P82" s="240" t="str">
+        <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="Q55" s="167" t="str">
-        <f t="shared" si="28"/>
+      <c r="Q82" s="240" t="str">
+        <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="R55" s="167" t="str">
-        <f t="shared" si="28"/>
+      <c r="R82" s="240" t="str">
+        <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F46:R46">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46979,7 +48244,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -47144,10 +48409,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="21">
-      <c r="B5" s="193" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="194"/>
+      <c r="B5" s="190" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="191"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -47166,72 +48431,72 @@
       <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19" ht="15">
-      <c r="B6" s="195" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="195" t="s">
+      <c r="B6" s="192" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="197">
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="194">
         <f>F7+F8+F9</f>
         <v>2446.3375797242384</v>
       </c>
-      <c r="G6" s="197">
+      <c r="G6" s="194">
         <f t="shared" ref="G6:R6" si="0">G7+G8+G9</f>
         <v>945.18507478588617</v>
       </c>
-      <c r="H6" s="197">
+      <c r="H6" s="194">
         <f t="shared" si="0"/>
         <v>1912.6729662176344</v>
       </c>
-      <c r="I6" s="197">
+      <c r="I6" s="194">
         <f t="shared" si="0"/>
         <v>1672.3556636778787</v>
       </c>
-      <c r="J6" s="197">
+      <c r="J6" s="194">
         <f t="shared" si="0"/>
         <v>3253.3258115408571</v>
       </c>
-      <c r="K6" s="197">
+      <c r="K6" s="194">
         <f t="shared" si="0"/>
         <v>3370.4345779343121</v>
       </c>
-      <c r="L6" s="197">
+      <c r="L6" s="194">
         <f t="shared" si="0"/>
         <v>2455.7492341350667</v>
       </c>
-      <c r="M6" s="197">
+      <c r="M6" s="194">
         <f t="shared" si="0"/>
         <v>3601.7357670734259</v>
       </c>
-      <c r="N6" s="197">
+      <c r="N6" s="194">
         <f t="shared" si="0"/>
         <v>3791.0022017406918</v>
       </c>
-      <c r="O6" s="197">
+      <c r="O6" s="194">
         <f t="shared" si="0"/>
         <v>208.86872097749233</v>
       </c>
-      <c r="P6" s="197">
+      <c r="P6" s="194">
         <f t="shared" si="0"/>
         <v>1200.8382513296954</v>
       </c>
-      <c r="Q6" s="197">
+      <c r="Q6" s="194">
         <f t="shared" si="0"/>
         <v>1254.1466463239979</v>
       </c>
-      <c r="R6" s="197">
+      <c r="R6" s="194">
         <f t="shared" si="0"/>
         <v>11.154299395345333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="B7" s="184" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="211" t="s">
+      <c r="B7" s="181" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="208" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="167">
@@ -47288,10 +48553,10 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="184" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="211" t="s">
+      <c r="B8" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="208" t="s">
         <v>88</v>
       </c>
       <c r="F8" s="167">
@@ -47348,10 +48613,10 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="184" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="211" t="s">
+      <c r="B9" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="208" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="158">
@@ -47408,15 +48673,15 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="184"/>
-      <c r="C10" s="184"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="184" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="184" t="s">
-        <v>269</v>
+      <c r="B11" s="181" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="181" t="s">
+        <v>266</v>
       </c>
       <c r="F11" s="159">
         <v>1</v>
@@ -47427,184 +48692,184 @@
       <c r="H11" s="159">
         <v>1</v>
       </c>
-      <c r="I11" s="187">
+      <c r="I11" s="184">
         <f>H11/(1+I23)</f>
         <v>0.91184150519704565</v>
       </c>
-      <c r="J11" s="187">
+      <c r="J11" s="184">
         <f t="shared" ref="J11:R11" si="1">I11/(1+J23)</f>
         <v>0.82880855673789167</v>
       </c>
-      <c r="K11" s="187">
+      <c r="K11" s="184">
         <f t="shared" si="1"/>
         <v>0.75102777937189258</v>
       </c>
-      <c r="L11" s="187">
+      <c r="L11" s="184">
         <f t="shared" si="1"/>
         <v>0.67853819207699062</v>
       </c>
-      <c r="M11" s="187">
+      <c r="M11" s="184">
         <f t="shared" si="1"/>
         <v>0.61129566853782935</v>
       </c>
-      <c r="N11" s="187">
+      <c r="N11" s="184">
         <f t="shared" si="1"/>
         <v>0.55071681850254894</v>
       </c>
-      <c r="O11" s="187">
+      <c r="O11" s="184">
         <f t="shared" si="1"/>
         <v>0.49614127793022422</v>
       </c>
-      <c r="P11" s="187">
+      <c r="P11" s="184">
         <f t="shared" si="1"/>
         <v>0.44697412426146321</v>
       </c>
-      <c r="Q11" s="187">
+      <c r="Q11" s="184">
         <f t="shared" si="1"/>
         <v>0.40267939122654339</v>
       </c>
-      <c r="R11" s="187">
+      <c r="R11" s="184">
         <f t="shared" si="1"/>
         <v>0.36277422633021922</v>
       </c>
-      <c r="S11" s="187">
+      <c r="S11" s="184">
         <f>R11/(1+S23)</f>
         <v>0.3268236273245218</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15">
-      <c r="B12" s="199" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="199" t="s">
+      <c r="B12" s="196" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="201">
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198">
         <f>F6*F11</f>
         <v>2446.3375797242384</v>
       </c>
-      <c r="G12" s="201">
+      <c r="G12" s="198">
         <f t="shared" ref="G12:R12" si="2">G6*G11</f>
         <v>945.18507478588617</v>
       </c>
-      <c r="H12" s="201">
+      <c r="H12" s="198">
         <f t="shared" si="2"/>
         <v>1912.6729662176344</v>
       </c>
-      <c r="I12" s="201">
+      <c r="I12" s="198">
         <f>I6*I11</f>
         <v>1524.9233055928412</v>
       </c>
-      <c r="J12" s="201">
+      <c r="J12" s="198">
         <f t="shared" si="2"/>
         <v>2696.384270461308</v>
       </c>
-      <c r="K12" s="201">
+      <c r="K12" s="198">
         <f t="shared" si="2"/>
         <v>2531.2899965842485</v>
       </c>
-      <c r="L12" s="201">
+      <c r="L12" s="198">
         <f t="shared" si="2"/>
         <v>1666.3196455244624</v>
       </c>
-      <c r="M12" s="201">
+      <c r="M12" s="198">
         <f t="shared" si="2"/>
         <v>2201.7254736297614</v>
       </c>
-      <c r="N12" s="201">
+      <c r="N12" s="198">
         <f t="shared" si="2"/>
         <v>2087.7686714787919</v>
       </c>
-      <c r="O12" s="201">
+      <c r="O12" s="198">
         <f t="shared" si="2"/>
         <v>103.62839414542448</v>
       </c>
-      <c r="P12" s="201">
+      <c r="P12" s="198">
         <f t="shared" si="2"/>
         <v>536.74362576775741</v>
       </c>
-      <c r="Q12" s="201">
+      <c r="Q12" s="198">
         <f t="shared" si="2"/>
         <v>505.01900805055845</v>
       </c>
-      <c r="R12" s="201">
+      <c r="R12" s="198">
         <f t="shared" si="2"/>
         <v>4.0464923334020355</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
     </row>
     <row r="14" spans="1:19" ht="15">
-      <c r="B14" s="195" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="195" t="s">
+      <c r="B14" s="192" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197">
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="194">
         <f>F15+F16+F17+F18</f>
         <v>2166.3375797242384</v>
       </c>
-      <c r="G14" s="197">
+      <c r="G14" s="194">
         <f t="shared" ref="G14:R14" si="3">G15+G16+G17+G18</f>
         <v>665.18507478588617</v>
       </c>
-      <c r="H14" s="197">
+      <c r="H14" s="194">
         <f t="shared" si="3"/>
         <v>1632.6729662176344</v>
       </c>
-      <c r="I14" s="197">
+      <c r="I14" s="194">
         <f t="shared" si="3"/>
         <v>1392.3556636778787</v>
       </c>
-      <c r="J14" s="197">
+      <c r="J14" s="194">
         <f t="shared" si="3"/>
         <v>1847.1852282045393</v>
       </c>
-      <c r="K14" s="197">
+      <c r="K14" s="194">
         <f t="shared" si="3"/>
         <v>1948.528026431286</v>
       </c>
-      <c r="L14" s="197">
+      <c r="L14" s="194">
         <f t="shared" si="3"/>
         <v>1016.9730966936625</v>
       </c>
-      <c r="M14" s="197">
+      <c r="M14" s="194">
         <f t="shared" si="3"/>
         <v>2144.909172677957</v>
       </c>
-      <c r="N14" s="197">
+      <c r="N14" s="194">
         <f t="shared" si="3"/>
         <v>3791.0022017406918</v>
       </c>
-      <c r="O14" s="197">
+      <c r="O14" s="194">
         <f t="shared" si="3"/>
         <v>208.86872097749233</v>
       </c>
-      <c r="P14" s="197">
+      <c r="P14" s="194">
         <f t="shared" si="3"/>
         <v>1200.8382513296954</v>
       </c>
-      <c r="Q14" s="197">
+      <c r="Q14" s="194">
         <f t="shared" si="3"/>
         <v>1254.1466463239979</v>
       </c>
-      <c r="R14" s="197">
+      <c r="R14" s="194">
         <f t="shared" si="3"/>
         <v>11.154299395345333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="184" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="211" t="s">
+      <c r="B15" s="181" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="208" t="s">
         <v>88</v>
       </c>
       <c r="F15" s="167">
@@ -47661,10 +48926,10 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="184" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="211" t="s">
+      <c r="B16" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="208" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="158">
@@ -47721,10 +48986,10 @@
       </c>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="184" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" s="211" t="s">
+      <c r="B17" s="181" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="208" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="159">
@@ -47781,10 +49046,10 @@
       </c>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="184" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" s="211" t="s">
+      <c r="B18" s="181" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="208" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="158">
@@ -47841,15 +49106,15 @@
       </c>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="184" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" s="184" t="s">
-        <v>269</v>
+      <c r="B20" s="181" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="181" t="s">
+        <v>266</v>
       </c>
       <c r="F20" s="159">
         <v>1</v>
@@ -47860,205 +49125,205 @@
       <c r="H20" s="159">
         <v>1</v>
       </c>
-      <c r="I20" s="187">
+      <c r="I20" s="184">
         <f>H20/(1+I31)</f>
         <v>0.9009009009009008</v>
       </c>
-      <c r="J20" s="187">
+      <c r="J20" s="184">
         <f t="shared" ref="J20:S20" si="6">I20/(1+J31)</f>
         <v>0.8116224332440547</v>
       </c>
-      <c r="K20" s="187">
+      <c r="K20" s="184">
         <f t="shared" si="6"/>
         <v>0.73119138130095007</v>
       </c>
-      <c r="L20" s="187">
+      <c r="L20" s="184">
         <f t="shared" si="6"/>
         <v>0.65873097414500004</v>
       </c>
-      <c r="M20" s="187">
+      <c r="M20" s="184">
         <f t="shared" si="6"/>
         <v>0.59345132805855849</v>
       </c>
-      <c r="N20" s="187">
+      <c r="N20" s="184">
         <f t="shared" si="6"/>
         <v>0.53464083608879143</v>
       </c>
-      <c r="O20" s="187">
+      <c r="O20" s="184">
         <f t="shared" si="6"/>
         <v>0.48165841089080302</v>
       </c>
-      <c r="P20" s="187">
+      <c r="P20" s="184">
         <f t="shared" si="6"/>
         <v>0.43392649629802071</v>
       </c>
-      <c r="Q20" s="187">
+      <c r="Q20" s="184">
         <f t="shared" si="6"/>
         <v>0.39092477143965826</v>
       </c>
-      <c r="R20" s="187">
+      <c r="R20" s="184">
         <f t="shared" si="6"/>
         <v>0.35218447877446685</v>
       </c>
-      <c r="S20" s="187">
+      <c r="S20" s="184">
         <f t="shared" si="6"/>
         <v>0.31728331421123135</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15">
-      <c r="B21" s="199" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="199" t="s">
+      <c r="B21" s="196" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="202">
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="199">
         <f>F14*F20</f>
         <v>2166.3375797242384</v>
       </c>
-      <c r="G21" s="202">
+      <c r="G21" s="199">
         <f t="shared" ref="G21:R21" si="7">G14*G20</f>
         <v>665.18507478588617</v>
       </c>
-      <c r="H21" s="202">
+      <c r="H21" s="199">
         <f t="shared" si="7"/>
         <v>1632.6729662176344</v>
       </c>
-      <c r="I21" s="202">
+      <c r="I21" s="199">
         <f t="shared" si="7"/>
         <v>1254.3744717818727</v>
       </c>
-      <c r="J21" s="202">
+      <c r="J21" s="199">
         <f t="shared" si="7"/>
         <v>1499.2169695678426</v>
       </c>
-      <c r="K21" s="202">
+      <c r="K21" s="199">
         <f t="shared" si="7"/>
         <v>1424.7468991499061</v>
       </c>
-      <c r="L21" s="202">
+      <c r="L21" s="199">
         <f t="shared" si="7"/>
         <v>669.91167866427361</v>
       </c>
-      <c r="M21" s="202">
+      <c r="M21" s="199">
         <f t="shared" si="7"/>
         <v>1272.8991970907175</v>
       </c>
-      <c r="N21" s="202">
+      <c r="N21" s="199">
         <f t="shared" si="7"/>
         <v>2026.8245867530927</v>
       </c>
-      <c r="O21" s="202">
+      <c r="O21" s="199">
         <f t="shared" si="7"/>
         <v>100.6033762308135</v>
       </c>
-      <c r="P21" s="202">
+      <c r="P21" s="199">
         <f t="shared" si="7"/>
         <v>521.07553502013673</v>
       </c>
-      <c r="Q21" s="202">
+      <c r="Q21" s="199">
         <f t="shared" si="7"/>
         <v>490.27699106602279</v>
       </c>
-      <c r="R21" s="202">
+      <c r="R21" s="199">
         <f t="shared" si="7"/>
         <v>3.9283711186440469</v>
       </c>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
     </row>
     <row r="23" spans="2:19" ht="15">
-      <c r="B23" s="195" t="s">
-        <v>282</v>
-      </c>
-      <c r="C23" s="195"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="198">
+      <c r="B23" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="192"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="195">
         <f>F29*F31+F30*F32*(1-Допущения!F33)</f>
         <v>9.4261574645179036E-2</v>
       </c>
-      <c r="G23" s="198">
+      <c r="G23" s="195">
         <f>G29*G31+G30*G32*(1-Допущения!G33)</f>
         <v>9.5072202617109525E-2</v>
       </c>
-      <c r="H23" s="198">
+      <c r="H23" s="195">
         <f>H29*H31+H30*H32*(1-Допущения!H33)</f>
         <v>9.5683073923855902E-2</v>
       </c>
-      <c r="I23" s="198">
+      <c r="I23" s="195">
         <f>I29*I31+I30*I32*(1-Допущения!I33)</f>
         <v>9.668181838674221E-2</v>
       </c>
-      <c r="J23" s="198">
+      <c r="J23" s="195">
         <f>J29*J31+J30*J32*(1-Допущения!J33)</f>
         <v>0.10018350774027165</v>
       </c>
-      <c r="K23" s="198">
+      <c r="K23" s="195">
         <f>K29*K31+K30*K32*(1-Допущения!K33)</f>
         <v>0.10356577945898278</v>
       </c>
-      <c r="L23" s="198">
+      <c r="L23" s="195">
         <f>L29*L31+L30*L32*(1-Допущения!L33)</f>
         <v>0.10683199286544642</v>
       </c>
-      <c r="M23" s="198">
+      <c r="M23" s="195">
         <f>M29*M31+M30*M32*(1-Допущения!M33)</f>
         <v>0.11</v>
       </c>
-      <c r="N23" s="198">
+      <c r="N23" s="195">
         <f>N29*N31+N30*N32*(1-Допущения!N33)</f>
         <v>0.11</v>
       </c>
-      <c r="O23" s="198">
+      <c r="O23" s="195">
         <f>O29*O31+O30*O32*(1-Допущения!O33)</f>
         <v>0.11</v>
       </c>
-      <c r="P23" s="198">
+      <c r="P23" s="195">
         <f>P29*P31+P30*P32*(1-Допущения!P33)</f>
         <v>0.11</v>
       </c>
-      <c r="Q23" s="198">
+      <c r="Q23" s="195">
         <f>Q29*Q31+Q30*Q32*(1-Допущения!Q33)</f>
         <v>0.11</v>
       </c>
-      <c r="R23" s="198">
+      <c r="R23" s="195">
         <f>R29*R31+R30*R32*(1-Допущения!R33)</f>
         <v>0.11</v>
       </c>
-      <c r="S23" s="198">
+      <c r="S23" s="195">
         <f>S29*S31+S30*S32*(1-Допущения!S33)</f>
         <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="15">
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="189"/>
-      <c r="M24" s="189"/>
-      <c r="N24" s="189"/>
-      <c r="O24" s="189"/>
-      <c r="P24" s="189"/>
-      <c r="Q24" s="189"/>
-      <c r="R24" s="189"/>
-      <c r="S24" s="189"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="184" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="184" t="s">
-        <v>272</v>
+      <c r="B25" s="181" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="181" t="s">
+        <v>269</v>
       </c>
       <c r="F25" s="167">
         <f>Отчетность!F41+Отчетность!F42</f>
@@ -48115,11 +49380,11 @@
       <c r="S25" s="164"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="184" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="184" t="s">
-        <v>272</v>
+      <c r="B26" s="181" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="181" t="s">
+        <v>269</v>
       </c>
       <c r="F26" s="167">
         <f>Отчетность!F43</f>
@@ -48176,11 +49441,11 @@
       <c r="S26" s="164"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="184" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="184" t="s">
-        <v>272</v>
+      <c r="B27" s="181" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>269</v>
       </c>
       <c r="F27" s="167">
         <f>F25+F26</f>
@@ -48237,277 +49502,277 @@
       <c r="S27" s="164"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="184" t="s">
-        <v>286</v>
-      </c>
-      <c r="C29" s="184" t="s">
+      <c r="B29" s="181" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="182">
+      <c r="F29" s="180">
         <f>F25/F27</f>
         <v>0.70854767861442669</v>
       </c>
-      <c r="G29" s="182">
+      <c r="G29" s="180">
         <f t="shared" ref="G29:R29" si="9">G25/G27</f>
         <v>0.72355930772425026</v>
       </c>
-      <c r="H29" s="182">
+      <c r="H29" s="180">
         <f t="shared" si="9"/>
         <v>0.73487173933066496</v>
       </c>
-      <c r="I29" s="182">
+      <c r="I29" s="180">
         <f t="shared" si="9"/>
         <v>0.75336700716189275</v>
       </c>
-      <c r="J29" s="182">
+      <c r="J29" s="180">
         <f t="shared" si="9"/>
         <v>0.81821310630132704</v>
       </c>
-      <c r="K29" s="182">
+      <c r="K29" s="180">
         <f t="shared" si="9"/>
         <v>0.88084776775894036</v>
       </c>
-      <c r="L29" s="182">
+      <c r="L29" s="180">
         <f t="shared" si="9"/>
         <v>0.94133320121197073</v>
       </c>
-      <c r="M29" s="182">
+      <c r="M29" s="180">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N29" s="182">
+      <c r="N29" s="180">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O29" s="182">
+      <c r="O29" s="180">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P29" s="182">
+      <c r="P29" s="180">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="182">
+      <c r="Q29" s="180">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="R29" s="182">
+      <c r="R29" s="180">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S29" s="192">
+      <c r="S29" s="189">
         <f>R29</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="184" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="184" t="s">
+      <c r="B30" s="181" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="206">
+      <c r="F30" s="203">
         <f>F26/F27</f>
         <v>0.29145232138557331</v>
       </c>
-      <c r="G30" s="206">
+      <c r="G30" s="203">
         <f t="shared" ref="G30:R30" si="10">G26/G27</f>
         <v>0.27644069227574974</v>
       </c>
-      <c r="H30" s="206">
+      <c r="H30" s="203">
         <f t="shared" si="10"/>
         <v>0.26512826066933493</v>
       </c>
-      <c r="I30" s="206">
+      <c r="I30" s="203">
         <f t="shared" si="10"/>
         <v>0.24663299283810725</v>
       </c>
-      <c r="J30" s="206">
+      <c r="J30" s="203">
         <f t="shared" si="10"/>
         <v>0.18178689369867296</v>
       </c>
-      <c r="K30" s="206">
+      <c r="K30" s="203">
         <f t="shared" si="10"/>
         <v>0.11915223224105959</v>
       </c>
-      <c r="L30" s="206">
+      <c r="L30" s="203">
         <f t="shared" si="10"/>
         <v>5.866679878802928E-2</v>
       </c>
-      <c r="M30" s="206">
+      <c r="M30" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N30" s="206">
+      <c r="N30" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O30" s="206">
+      <c r="O30" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P30" s="206">
+      <c r="P30" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="206">
+      <c r="Q30" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R30" s="206">
+      <c r="R30" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S30" s="192">
+      <c r="S30" s="189">
         <f>R30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="184" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="184" t="s">
+      <c r="B31" s="181" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="209"/>
-      <c r="F31" s="207">
+      <c r="E31" s="206"/>
+      <c r="F31" s="204">
         <f t="shared" ref="F31:S31" si="11">CAPM</f>
         <v>0.11</v>
       </c>
-      <c r="G31" s="188">
+      <c r="G31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="H31" s="188">
+      <c r="H31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="I31" s="188">
+      <c r="I31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="J31" s="188">
+      <c r="J31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="K31" s="188">
+      <c r="K31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="L31" s="188">
+      <c r="L31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="M31" s="188">
+      <c r="M31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="N31" s="188">
+      <c r="N31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="O31" s="188">
+      <c r="O31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="P31" s="188">
+      <c r="P31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="Q31" s="188">
+      <c r="Q31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="R31" s="188">
+      <c r="R31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="S31" s="188">
+      <c r="S31" s="185">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="184" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="184" t="s">
+      <c r="B32" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="210"/>
-      <c r="F32" s="208">
+      <c r="E32" s="207"/>
+      <c r="F32" s="205">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G32" s="192">
+      <c r="G32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H32" s="192">
+      <c r="H32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I32" s="192">
+      <c r="I32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J32" s="192">
+      <c r="J32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K32" s="192">
+      <c r="K32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L32" s="192">
+      <c r="L32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M32" s="192">
+      <c r="M32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N32" s="192">
+      <c r="N32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O32" s="192">
+      <c r="O32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P32" s="192">
+      <c r="P32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q32" s="192">
+      <c r="Q32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R32" s="192">
+      <c r="R32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S32" s="192">
+      <c r="S32" s="189">
         <f>Допущения!$E$200</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="E33" s="204"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="E33" s="201"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="205" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" s="212" t="s">
+      <c r="B34" s="202" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="167">
@@ -48516,10 +49781,10 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="185" t="s">
-        <v>292</v>
-      </c>
-      <c r="C35" s="212" t="s">
+      <c r="B35" s="182" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D35" s="167">
@@ -48528,10 +49793,10 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="185" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="212" t="s">
+      <c r="B36" s="182" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="167">
@@ -48540,22 +49805,22 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="15">
-      <c r="B37" s="203" t="s">
-        <v>290</v>
-      </c>
-      <c r="C37" s="203" t="s">
+      <c r="B37" s="200" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="194">
         <f>D34+D36</f>
         <v>17316.900277746696</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="185" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="212" t="s">
+      <c r="B38" s="182" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="167">
@@ -48564,32 +49829,32 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="15">
-      <c r="B39" s="203" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" s="203" t="s">
+      <c r="B39" s="200" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="194">
         <f>D37-D38</f>
         <v>18101.016050626138</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
     </row>
     <row r="41" spans="2:5" ht="18.75">
-      <c r="B41" s="186" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41" s="184"/>
+      <c r="B41" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="181"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="185" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="212" t="s">
+      <c r="B42" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D42" s="167">
@@ -48598,10 +49863,10 @@
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="185" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="212" t="s">
+      <c r="B43" s="182" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D43" s="167">
@@ -48610,10 +49875,10 @@
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="185" t="s">
-        <v>293</v>
-      </c>
-      <c r="C44" s="212" t="s">
+      <c r="B44" s="182" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D44" s="167">
@@ -48622,22 +49887,22 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="15">
-      <c r="B45" s="203" t="s">
-        <v>298</v>
-      </c>
-      <c r="C45" s="203" t="s">
+      <c r="B45" s="200" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="197">
+      <c r="D45" s="194">
         <f>D42+D44</f>
         <v>12621.936252602996</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="185" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" s="212" t="s">
+      <c r="B46" s="182" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="167">
@@ -48646,13 +49911,13 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="15">
-      <c r="B47" s="203" t="s">
-        <v>296</v>
-      </c>
-      <c r="C47" s="203" t="s">
+      <c r="B47" s="200" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="197">
+      <c r="D47" s="194">
         <f>D45+D46</f>
         <v>11837.820479723556</v>
       </c>
@@ -48679,74 +49944,74 @@
   <sheetData>
     <row r="3" spans="1:17" ht="15">
       <c r="A3" s="147" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B3" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="234">
+      <c r="C3" s="231">
         <v>0.11</v>
       </c>
-      <c r="D3" s="221">
+      <c r="D3" s="218">
         <f t="shared" ref="D3:H3" si="0">E3-$C$5</f>
         <v>9.7499999999999989E-2</v>
       </c>
-      <c r="E3" s="221">
+      <c r="E3" s="218">
         <f t="shared" si="0"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="F3" s="221">
+      <c r="F3" s="218">
         <f t="shared" si="0"/>
         <v>0.10249999999999999</v>
       </c>
-      <c r="G3" s="221">
+      <c r="G3" s="218">
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
-      <c r="H3" s="221">
+      <c r="H3" s="218">
         <f t="shared" si="0"/>
         <v>0.1075</v>
       </c>
-      <c r="I3" s="223">
+      <c r="I3" s="220">
         <v>0.11</v>
       </c>
-      <c r="J3" s="224">
+      <c r="J3" s="221">
         <f>I3+$C$5</f>
         <v>0.1125</v>
       </c>
-      <c r="K3" s="224">
+      <c r="K3" s="221">
         <f>J3+$C$5</f>
         <v>0.115</v>
       </c>
-      <c r="L3" s="224">
+      <c r="L3" s="221">
         <f t="shared" ref="L3:P3" si="1">K3+$C$5</f>
         <v>0.11750000000000001</v>
       </c>
-      <c r="M3" s="224">
+      <c r="M3" s="221">
         <f t="shared" si="1"/>
         <v>0.12000000000000001</v>
       </c>
-      <c r="N3" s="224">
+      <c r="N3" s="221">
         <f t="shared" si="1"/>
         <v>0.12250000000000001</v>
       </c>
-      <c r="O3" s="224">
+      <c r="O3" s="221">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="P3" s="224">
+      <c r="P3" s="221">
         <f t="shared" si="1"/>
         <v>0.1275</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15">
       <c r="A4" s="147" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B4" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="233">
+      <c r="C4" s="230">
         <f>Оценка!$D$37</f>
         <v>17316.900277746696</v>
       </c>
@@ -48766,10 +50031,10 @@
       <c r="H4" s="167">
         <v>17620.71303177634</v>
       </c>
-      <c r="I4" s="215">
+      <c r="I4" s="212">
         <v>17316.900277746696</v>
       </c>
-      <c r="J4" s="216">
+      <c r="J4" s="213">
         <v>17028.321188485657</v>
       </c>
       <c r="K4" s="167">
@@ -48793,7 +50058,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="147" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B5" s="147" t="s">
         <v>8</v>
@@ -48809,7 +50074,7 @@
       <c r="B7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="235">
+      <c r="C7" s="232">
         <v>0.03</v>
       </c>
       <c r="D7" s="177">
@@ -48832,7 +50097,7 @@
         <f>I7-$C$9</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="I7" s="214">
+      <c r="I7" s="211">
         <v>0.03</v>
       </c>
       <c r="J7" s="177">
@@ -48866,12 +50131,12 @@
     </row>
     <row r="8" spans="1:17" ht="15">
       <c r="A8" s="147" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B8" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="233">
+      <c r="C8" s="230">
         <f>Оценка!D37</f>
         <v>17316.900277746696</v>
       </c>
@@ -48891,7 +50156,7 @@
       <c r="H8" s="167">
         <v>17270.879097745041</v>
       </c>
-      <c r="I8" s="215">
+      <c r="I8" s="212">
         <v>17316.900277746696</v>
       </c>
       <c r="J8" s="167">
@@ -48918,91 +50183,91 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="147" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B9" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="217">
+      <c r="C9" s="214">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
     </row>
     <row r="14" spans="1:17" ht="15">
-      <c r="B14" s="218"/>
-      <c r="C14" s="232">
+      <c r="B14" s="215"/>
+      <c r="C14" s="229">
         <f>Оценка!D37</f>
         <v>17316.900277746696</v>
       </c>
-      <c r="D14" s="221">
+      <c r="D14" s="218">
         <f t="shared" ref="D14:H14" si="4">D3</f>
         <v>9.7499999999999989E-2</v>
       </c>
-      <c r="E14" s="221">
+      <c r="E14" s="218">
         <f t="shared" si="4"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="F14" s="221">
+      <c r="F14" s="218">
         <f t="shared" si="4"/>
         <v>0.10249999999999999</v>
       </c>
-      <c r="G14" s="221">
+      <c r="G14" s="218">
         <f t="shared" si="4"/>
         <v>0.105</v>
       </c>
-      <c r="H14" s="221">
+      <c r="H14" s="218">
         <f t="shared" si="4"/>
         <v>0.1075</v>
       </c>
-      <c r="I14" s="223">
+      <c r="I14" s="220">
         <f>I3</f>
         <v>0.11</v>
       </c>
-      <c r="J14" s="221">
+      <c r="J14" s="218">
         <f t="shared" ref="J14:P14" si="5">J3</f>
         <v>0.1125</v>
       </c>
-      <c r="K14" s="221">
+      <c r="K14" s="218">
         <f t="shared" si="5"/>
         <v>0.115</v>
       </c>
-      <c r="L14" s="221">
+      <c r="L14" s="218">
         <f t="shared" si="5"/>
         <v>0.11750000000000001</v>
       </c>
-      <c r="M14" s="221">
+      <c r="M14" s="218">
         <f t="shared" si="5"/>
         <v>0.12000000000000001</v>
       </c>
-      <c r="N14" s="221">
+      <c r="N14" s="218">
         <f t="shared" si="5"/>
         <v>0.12250000000000001</v>
       </c>
-      <c r="O14" s="221">
+      <c r="O14" s="218">
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="P14" s="221">
+      <c r="P14" s="218">
         <f t="shared" si="5"/>
         <v>0.1275</v>
       </c>
-      <c r="Q14" s="218"/>
+      <c r="Q14" s="215"/>
     </row>
     <row r="15" spans="1:17" ht="15">
-      <c r="B15" s="218"/>
-      <c r="C15" s="188">
+      <c r="B15" s="215"/>
+      <c r="C15" s="185">
         <f>C16-$C$9</f>
         <v>2.4999999999999994E-2</v>
       </c>
@@ -49022,7 +50287,7 @@
       <c r="H15" s="167">
         <v>17382.498013133685</v>
       </c>
-      <c r="I15" s="215">
+      <c r="I15" s="212">
         <v>17097.622890680002</v>
       </c>
       <c r="J15" s="167">
@@ -49046,11 +50311,11 @@
       <c r="P15" s="167">
         <v>15424.363021886677</v>
       </c>
-      <c r="Q15" s="218"/>
+      <c r="Q15" s="215"/>
     </row>
     <row r="16" spans="1:17" ht="15">
-      <c r="B16" s="218"/>
-      <c r="C16" s="188">
+      <c r="B16" s="215"/>
+      <c r="C16" s="185">
         <f>C17-$C$9</f>
         <v>2.5999999999999995E-2</v>
       </c>
@@ -49069,7 +50334,7 @@
       <c r="H16" s="167">
         <v>17427.802709930755</v>
       </c>
-      <c r="I16" s="215">
+      <c r="I16" s="212">
         <v>17139.39001202604</v>
       </c>
       <c r="J16" s="167">
@@ -49093,11 +50358,11 @@
       <c r="P16" s="167">
         <v>15449.099356637245</v>
       </c>
-      <c r="Q16" s="218"/>
+      <c r="Q16" s="215"/>
     </row>
     <row r="17" spans="2:17" ht="15">
-      <c r="B17" s="218"/>
-      <c r="C17" s="188">
+      <c r="B17" s="215"/>
+      <c r="C17" s="185">
         <f>C18-$C$9</f>
         <v>2.6999999999999996E-2</v>
       </c>
@@ -49116,7 +50381,7 @@
       <c r="H17" s="167">
         <v>17474.232989256943</v>
       </c>
-      <c r="I17" s="215">
+      <c r="I17" s="212">
         <v>17182.163570031018</v>
       </c>
       <c r="J17" s="167">
@@ -49140,11 +50405,11 @@
       <c r="P17" s="167">
         <v>15474.327956755984</v>
       </c>
-      <c r="Q17" s="218"/>
+      <c r="Q17" s="215"/>
     </row>
     <row r="18" spans="2:17" ht="15">
-      <c r="B18" s="218"/>
-      <c r="C18" s="188">
+      <c r="B18" s="215"/>
+      <c r="C18" s="185">
         <f>C19-$C$9</f>
         <v>2.7999999999999997E-2</v>
       </c>
@@ -49163,7 +50428,7 @@
       <c r="H18" s="167">
         <v>17521.831325924672</v>
       </c>
-      <c r="I18" s="215">
+      <c r="I18" s="212">
         <v>17225.980385548311</v>
       </c>
       <c r="J18" s="167">
@@ -49187,11 +50452,11 @@
       <c r="P18" s="167">
         <v>15500.063664414796</v>
       </c>
-      <c r="Q18" s="218"/>
+      <c r="Q18" s="215"/>
     </row>
     <row r="19" spans="2:17" ht="15">
-      <c r="B19" s="218"/>
-      <c r="C19" s="188">
+      <c r="B19" s="215"/>
+      <c r="C19" s="185">
         <f>C20-$C$9</f>
         <v>2.8999999999999998E-2</v>
       </c>
@@ -49210,7 +50475,7 @@
       <c r="H19" s="167">
         <v>17570.642359068013</v>
       </c>
-      <c r="I19" s="215">
+      <c r="I19" s="212">
         <v>17270.879097745041</v>
       </c>
       <c r="J19" s="167">
@@ -49234,58 +50499,58 @@
       <c r="P19" s="167">
         <v>15526.321924513382</v>
       </c>
-      <c r="Q19" s="218"/>
+      <c r="Q19" s="215"/>
     </row>
     <row r="20" spans="2:17" ht="15">
-      <c r="B20" s="218"/>
-      <c r="C20" s="222">
+      <c r="B20" s="215"/>
+      <c r="C20" s="219">
         <f>I7</f>
         <v>0.03</v>
       </c>
-      <c r="D20" s="215">
+      <c r="D20" s="212">
         <v>19021.092413146769</v>
       </c>
-      <c r="E20" s="215">
+      <c r="E20" s="212">
         <v>18639.365008849909</v>
       </c>
-      <c r="F20" s="215">
+      <c r="F20" s="212">
         <v>18280.146686210253</v>
       </c>
-      <c r="G20" s="215">
+      <c r="G20" s="212">
         <v>17941.235479707331</v>
       </c>
-      <c r="H20" s="215">
+      <c r="H20" s="212">
         <v>17620.71303177634</v>
       </c>
-      <c r="I20" s="215">
+      <c r="I20" s="212">
         <v>17316.900277746696</v>
       </c>
-      <c r="J20" s="215">
+      <c r="J20" s="212">
         <v>17028.321188485657</v>
       </c>
-      <c r="K20" s="215">
+      <c r="K20" s="212">
         <v>16753.672911784033</v>
       </c>
-      <c r="L20" s="215">
+      <c r="L20" s="212">
         <v>16491.801032713236</v>
       </c>
-      <c r="M20" s="215">
+      <c r="M20" s="212">
         <v>16241.678957577771</v>
       </c>
-      <c r="N20" s="215">
+      <c r="N20" s="212">
         <v>16002.390641304486</v>
       </c>
-      <c r="O20" s="215">
+      <c r="O20" s="212">
         <v>15773.116042354803</v>
       </c>
-      <c r="P20" s="215">
+      <c r="P20" s="212">
         <v>15553.11881558835</v>
       </c>
-      <c r="Q20" s="218"/>
+      <c r="Q20" s="215"/>
     </row>
     <row r="21" spans="2:17" ht="15">
-      <c r="B21" s="218"/>
-      <c r="C21" s="188">
+      <c r="B21" s="215"/>
+      <c r="C21" s="185">
         <f t="shared" ref="C21:C27" si="6">C20+$C$9</f>
         <v>3.1E-2</v>
       </c>
@@ -49304,7 +50569,7 @@
       <c r="H21" s="167">
         <v>17672.092741679659</v>
       </c>
-      <c r="I21" s="215">
+      <c r="I21" s="212">
         <v>17364.086550912943</v>
       </c>
       <c r="J21" s="167">
@@ -49328,11 +50593,11 @@
       <c r="P21" s="167">
         <v>15580.471082644146</v>
       </c>
-      <c r="Q21" s="218"/>
+      <c r="Q21" s="215"/>
     </row>
     <row r="22" spans="2:17" ht="15">
-      <c r="B22" s="218"/>
-      <c r="C22" s="188">
+      <c r="B22" s="215"/>
+      <c r="C22" s="185">
         <f t="shared" si="6"/>
         <v>3.2000000000000001E-2</v>
       </c>
@@ -49351,7 +50616,7 @@
       <c r="H22" s="167">
         <v>17724.833503500944</v>
       </c>
-      <c r="I22" s="215">
+      <c r="I22" s="212">
         <v>17412.482728519353</v>
       </c>
       <c r="J22" s="167">
@@ -49375,11 +50640,11 @@
       <c r="P22" s="167">
         <v>15608.396172046661</v>
       </c>
-      <c r="Q22" s="218"/>
+      <c r="Q22" s="215"/>
     </row>
     <row r="23" spans="2:17" ht="15">
-      <c r="B23" s="218"/>
-      <c r="C23" s="188">
+      <c r="B23" s="215"/>
+      <c r="C23" s="185">
         <f t="shared" si="6"/>
         <v>3.3000000000000002E-2</v>
       </c>
@@ -49398,7 +50663,7 @@
       <c r="H23" s="167">
         <v>17778.990124699983</v>
       </c>
-      <c r="I23" s="215">
+      <c r="I23" s="212">
         <v>17462.135949699954</v>
       </c>
       <c r="J23" s="167">
@@ -49422,11 +50687,11 @@
       <c r="P23" s="167">
         <v>15636.912268632297</v>
       </c>
-      <c r="Q23" s="218"/>
+      <c r="Q23" s="215"/>
     </row>
     <row r="24" spans="2:17" ht="15">
-      <c r="B24" s="218"/>
-      <c r="C24" s="188">
+      <c r="B24" s="215"/>
+      <c r="C24" s="185">
         <f t="shared" si="6"/>
         <v>3.4000000000000002E-2</v>
       </c>
@@ -49445,7 +50710,7 @@
       <c r="H24" s="167">
         <v>17834.620395455458</v>
       </c>
-      <c r="I24" s="215">
+      <c r="I24" s="212">
         <v>17513.095834595835</v>
       </c>
       <c r="J24" s="167">
@@ -49469,11 +50734,11 @@
       <c r="P24" s="167">
         <v>15666.038335198375</v>
       </c>
-      <c r="Q24" s="218"/>
+      <c r="Q24" s="215"/>
     </row>
     <row r="25" spans="2:17" ht="15">
-      <c r="B25" s="218"/>
-      <c r="C25" s="188">
+      <c r="B25" s="215"/>
+      <c r="C25" s="185">
         <f t="shared" si="6"/>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -49492,7 +50757,7 @@
       <c r="H25" s="167">
         <v>17891.785294369707</v>
       </c>
-      <c r="I25" s="215">
+      <c r="I25" s="212">
         <v>17565.414649755607</v>
       </c>
       <c r="J25" s="167">
@@ -49516,11 +50781,11 @@
       <c r="P25" s="167">
         <v>15695.794154555069</v>
       </c>
-      <c r="Q25" s="218"/>
+      <c r="Q25" s="215"/>
     </row>
     <row r="26" spans="2:17" ht="15">
-      <c r="B26" s="218"/>
-      <c r="C26" s="188">
+      <c r="B26" s="215"/>
+      <c r="C26" s="185">
         <f t="shared" si="6"/>
         <v>3.6000000000000004E-2</v>
       </c>
@@ -49539,7 +50804,7 @@
       <c r="H26" s="167">
         <v>17950.549211435402</v>
       </c>
-      <c r="I26" s="215">
+      <c r="I26" s="212">
         <v>17619.147486946724</v>
       </c>
       <c r="J26" s="167">
@@ -49563,11 +50828,11 @@
       <c r="P26" s="167">
         <v>15726.200374334861</v>
       </c>
-      <c r="Q26" s="218"/>
+      <c r="Q26" s="215"/>
     </row>
     <row r="27" spans="2:17" ht="15">
-      <c r="B27" s="218"/>
-      <c r="C27" s="188">
+      <c r="B27" s="215"/>
+      <c r="C27" s="185">
         <f t="shared" si="6"/>
         <v>3.7000000000000005E-2</v>
       </c>
@@ -49586,7 +50851,7 @@
       <c r="H27" s="167">
         <v>18010.980189978138</v>
       </c>
-      <c r="I27" s="215">
+      <c r="I27" s="212">
         <v>17674.352456663626</v>
       </c>
       <c r="J27" s="167">
@@ -49610,97 +50875,97 @@
       <c r="P27" s="167">
         <v>15757.278554772773</v>
       </c>
-      <c r="Q27" s="218"/>
+      <c r="Q27" s="215"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="218"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="219"/>
-      <c r="O28" s="219"/>
-      <c r="P28" s="219"/>
-      <c r="Q28" s="218"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="216"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="216"/>
+      <c r="Q28" s="215"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="218"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="219"/>
-      <c r="Q29" s="218"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="216"/>
+      <c r="M29" s="216"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="216"/>
+      <c r="Q29" s="215"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="218"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
-      <c r="M30" s="219"/>
-      <c r="N30" s="219"/>
-      <c r="O30" s="219"/>
-      <c r="P30" s="219"/>
-      <c r="Q30" s="218"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="216"/>
+      <c r="Q30" s="215"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="218"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="218"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="218"/>
-      <c r="L31" s="218"/>
-      <c r="M31" s="218"/>
-      <c r="N31" s="218"/>
-      <c r="O31" s="218"/>
-      <c r="P31" s="218"/>
-      <c r="Q31" s="218"/>
+      <c r="B31" s="215"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="218"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="218"/>
-      <c r="Q32" s="218"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
+      <c r="M32" s="215"/>
+      <c r="N32" s="215"/>
+      <c r="O32" s="215"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="215"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50525,20 +51790,20 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="228"/>
-      <c r="K22" s="228"/>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="228"/>
-      <c r="P22" s="228"/>
-      <c r="Q22" s="228"/>
-      <c r="R22" s="228"/>
-      <c r="S22" s="228"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="225"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="225"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="225"/>
+      <c r="R22" s="225"/>
+      <c r="S22" s="225"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="67"/>
@@ -50569,20 +51834,20 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="228"/>
-      <c r="L24" s="228"/>
-      <c r="M24" s="228"/>
-      <c r="N24" s="228"/>
-      <c r="O24" s="228"/>
-      <c r="P24" s="228"/>
-      <c r="Q24" s="228"/>
-      <c r="R24" s="228"/>
-      <c r="S24" s="228"/>
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="225"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="225"/>
+      <c r="R24" s="225"/>
+      <c r="S24" s="225"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2"/>
@@ -50594,59 +51859,59 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="229">
+      <c r="F25" s="226">
         <f>CHOOSE($C$32,F9,F17)</f>
         <v>2.8929999999999997E-2</v>
       </c>
-      <c r="G25" s="229">
+      <c r="G25" s="226">
         <f t="shared" ref="G25:S25" si="2">CHOOSE($C$32,G9,G17)</f>
         <v>4.4720000000000003E-2</v>
       </c>
-      <c r="H25" s="229">
+      <c r="H25" s="226">
         <f t="shared" si="2"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I25" s="229">
+      <c r="I25" s="226">
         <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J25" s="229">
+      <c r="J25" s="226">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K25" s="229">
+      <c r="K25" s="226">
         <f t="shared" si="2"/>
         <v>3.9E-2</v>
       </c>
-      <c r="L25" s="229">
+      <c r="L25" s="226">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="M25" s="229">
+      <c r="M25" s="226">
         <f t="shared" si="2"/>
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="N25" s="229">
+      <c r="N25" s="226">
         <f t="shared" si="2"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="O25" s="229">
+      <c r="O25" s="226">
         <f t="shared" si="2"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P25" s="229">
+      <c r="P25" s="226">
         <f t="shared" si="2"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q25" s="229">
+      <c r="Q25" s="226">
         <f t="shared" si="2"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="R25" s="229">
+      <c r="R25" s="226">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="S25" s="229">
+      <c r="S25" s="226">
         <f t="shared" si="2"/>
         <v>2.8999999999999998E-2</v>
       </c>
@@ -50661,59 +51926,59 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="229">
+      <c r="F26" s="226">
         <f t="shared" ref="F26:S29" si="3">CHOOSE($C$32,F10,F18)</f>
         <v>0.12125</v>
       </c>
-      <c r="G26" s="229">
+      <c r="G26" s="226">
         <f t="shared" si="3"/>
         <v>2.0110000000000003E-2</v>
       </c>
-      <c r="H26" s="229">
+      <c r="H26" s="226">
         <f t="shared" si="3"/>
         <v>-3.9E-2</v>
       </c>
-      <c r="I26" s="229">
+      <c r="I26" s="226">
         <f t="shared" si="3"/>
         <v>2.3E-2</v>
       </c>
-      <c r="J26" s="229">
+      <c r="J26" s="226">
         <f t="shared" si="3"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K26" s="229">
+      <c r="K26" s="226">
         <f t="shared" si="3"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L26" s="229">
+      <c r="L26" s="226">
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M26" s="229">
+      <c r="M26" s="226">
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N26" s="229">
+      <c r="N26" s="226">
         <f t="shared" si="3"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="O26" s="229">
+      <c r="O26" s="226">
         <f t="shared" si="3"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P26" s="229">
+      <c r="P26" s="226">
         <f t="shared" si="3"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q26" s="229">
+      <c r="Q26" s="226">
         <f t="shared" si="3"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="R26" s="229">
+      <c r="R26" s="226">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="S26" s="229">
+      <c r="S26" s="226">
         <f t="shared" si="3"/>
         <v>2.8999999999999998E-2</v>
       </c>
@@ -50728,59 +51993,59 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="229">
+      <c r="F27" s="226">
         <f t="shared" si="3"/>
         <v>2.4399999999999998E-2</v>
       </c>
-      <c r="G27" s="229">
+      <c r="G27" s="226">
         <f t="shared" si="3"/>
         <v>1.8120000000000001E-2</v>
       </c>
-      <c r="H27" s="229">
+      <c r="H27" s="226">
         <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
-      <c r="I27" s="229">
+      <c r="I27" s="226">
         <f t="shared" si="3"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J27" s="229">
+      <c r="J27" s="226">
         <f t="shared" si="3"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="K27" s="229">
+      <c r="K27" s="226">
         <f t="shared" si="3"/>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="L27" s="229">
+      <c r="L27" s="226">
         <f t="shared" si="3"/>
         <v>1.9E-2</v>
       </c>
-      <c r="M27" s="229">
+      <c r="M27" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="N27" s="229">
+      <c r="N27" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O27" s="229">
+      <c r="O27" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P27" s="229">
+      <c r="P27" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q27" s="229">
+      <c r="Q27" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R27" s="229">
+      <c r="R27" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="S27" s="229">
+      <c r="S27" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -50795,59 +52060,59 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="229">
+      <c r="F28" s="226">
         <f t="shared" si="3"/>
         <v>2.9220000000000003E-2</v>
       </c>
-      <c r="G28" s="229">
+      <c r="G28" s="226">
         <f t="shared" si="3"/>
         <v>1.67E-2</v>
       </c>
-      <c r="H28" s="229">
+      <c r="H28" s="226">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="I28" s="229">
+      <c r="I28" s="226">
         <f t="shared" si="3"/>
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="J28" s="229">
+      <c r="J28" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="K28" s="229">
+      <c r="K28" s="226">
         <f t="shared" si="3"/>
         <v>2.3E-2</v>
       </c>
-      <c r="L28" s="229">
+      <c r="L28" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="M28" s="229">
+      <c r="M28" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="N28" s="229">
+      <c r="N28" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O28" s="229">
+      <c r="O28" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P28" s="229">
+      <c r="P28" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q28" s="229">
+      <c r="Q28" s="226">
         <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R28" s="229">
+      <c r="R28" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="S28" s="229">
+      <c r="S28" s="226">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -50859,68 +52124,68 @@
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="230">
+      <c r="F29" s="227">
         <f t="shared" si="3"/>
         <v>62.668132999999997</v>
       </c>
-      <c r="G29" s="230">
+      <c r="G29" s="227">
         <f t="shared" si="3"/>
         <v>64.737657999999996</v>
       </c>
-      <c r="H29" s="230">
+      <c r="H29" s="227">
         <f t="shared" si="3"/>
         <v>72.040000000000006</v>
       </c>
-      <c r="I29" s="230">
+      <c r="I29" s="227">
         <f t="shared" si="3"/>
         <v>73.23</v>
       </c>
-      <c r="J29" s="230">
+      <c r="J29" s="227">
         <f t="shared" si="3"/>
         <v>71.91</v>
       </c>
-      <c r="K29" s="230">
+      <c r="K29" s="227">
         <f t="shared" si="3"/>
         <v>71.209999999999994</v>
       </c>
-      <c r="L29" s="230">
+      <c r="L29" s="227">
         <f t="shared" si="3"/>
         <v>72.510000000000005</v>
       </c>
-      <c r="M29" s="230">
+      <c r="M29" s="227">
         <f t="shared" si="3"/>
         <v>74.08</v>
       </c>
-      <c r="N29" s="230">
+      <c r="N29" s="227">
         <f t="shared" si="3"/>
         <v>75.14</v>
       </c>
-      <c r="O29" s="230">
+      <c r="O29" s="227">
         <f t="shared" si="3"/>
         <v>76.150000000000006</v>
       </c>
-      <c r="P29" s="230">
+      <c r="P29" s="227">
         <f t="shared" si="3"/>
         <v>77.099999999999994</v>
       </c>
-      <c r="Q29" s="230">
+      <c r="Q29" s="227">
         <f t="shared" si="3"/>
         <v>77.98</v>
       </c>
-      <c r="R29" s="230">
+      <c r="R29" s="227">
         <f t="shared" si="3"/>
         <v>78.8</v>
       </c>
-      <c r="S29" s="230">
+      <c r="S29" s="227">
         <f t="shared" si="3"/>
         <v>79.63</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="21">
-      <c r="A32" s="225" t="s">
-        <v>304</v>
-      </c>
-      <c r="B32" s="227" t="s">
+      <c r="A32" s="222" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="224" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="24">
@@ -50929,12 +52194,12 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="226" t="s">
-        <v>305</v>
+      <c r="A38" s="223" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="226" t="s">
+      <c r="A39" s="223" t="s">
         <v>35</v>
       </c>
       <c r="B39">
@@ -50942,8 +52207,8 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="226" t="s">
-        <v>306</v>
+      <c r="A40" s="223" t="s">
+        <v>303</v>
       </c>
       <c r="B40">
         <v>2</v>

--- a/Финансовая_модель_энергетика.xlsx
+++ b/Финансовая_модель_энергетика.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="338">
   <si>
     <t>Наименование</t>
   </si>
@@ -1069,12 +1069,36 @@
   <si>
     <t>4.4 EBIT/проценты</t>
   </si>
+  <si>
+    <t>Банковские ковенанты</t>
+  </si>
+  <si>
+    <t>1. LTV</t>
+  </si>
+  <si>
+    <t>2. Долг/EBITDA</t>
+  </si>
+  <si>
+    <t>4. ICR (EBIT/проценты)</t>
+  </si>
+  <si>
+    <t>5. DSCR</t>
+  </si>
+  <si>
+    <t>5.1 CFADS</t>
+  </si>
+  <si>
+    <t>5.2 Debt service</t>
+  </si>
+  <si>
+    <t>3. Чистый долг/EBITDA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\ \(#,##0.00\);\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0;\ \(#,##0\);\ \-"/>
@@ -1083,7 +1107,8 @@
     <numFmt numFmtId="169" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1543,7 +1568,7 @@
     <xf numFmtId="166" fontId="10" fillId="10" borderId="1"/>
     <xf numFmtId="170" fontId="15" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2006,15 +2031,26 @@
     <xf numFmtId="10" fontId="31" fillId="16" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="31" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation 2" xfId="2"/>
@@ -31893,8 +31929,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S289"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
@@ -44632,11 +44668,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T98" sqref="T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44887,7 +44923,7 @@
       <c r="B7" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="167">
@@ -45011,7 +45047,7 @@
       <c r="B9" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="167">
@@ -45071,7 +45107,7 @@
       <c r="B10" s="157" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F10" s="167">
@@ -45131,7 +45167,7 @@
       <c r="B11" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="167">
@@ -45191,7 +45227,7 @@
       <c r="B12" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="167">
@@ -45251,7 +45287,7 @@
       <c r="B13" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="167">
@@ -45371,15 +45407,17 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="147"/>
+      <c r="C15" s="223"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="147"/>
+      <c r="C16" s="223"/>
     </row>
     <row r="17" spans="2:18" ht="20.25">
       <c r="B17" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="251"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -45400,7 +45438,7 @@
       <c r="B18" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="167">
@@ -45460,7 +45498,7 @@
       <c r="B19" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="167">
@@ -45520,7 +45558,7 @@
       <c r="B20" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="175">
@@ -45567,7 +45605,7 @@
       <c r="B21" s="157" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="158">
@@ -45687,12 +45725,13 @@
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="157"/>
+      <c r="C23" s="223"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="175">
@@ -45739,7 +45778,7 @@
       <c r="B25" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="239" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="147" t="s">
@@ -45862,6 +45901,7 @@
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="1"/>
+      <c r="C27" s="223"/>
       <c r="F27" s="170"/>
       <c r="G27" s="170"/>
       <c r="H27" s="170"/>
@@ -45880,7 +45920,7 @@
       <c r="B28" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F28" s="159">
@@ -45940,7 +45980,7 @@
       <c r="B29" s="157" t="s">
         <v>254</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F29" s="158">
@@ -46060,6 +46100,7 @@
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="157"/>
+      <c r="C31" s="223"/>
     </row>
     <row r="32" spans="2:18" ht="15">
       <c r="B32" s="161" t="s">
@@ -46154,7 +46195,7 @@
       <c r="B36" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="164">
@@ -46214,7 +46255,7 @@
       <c r="B37" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F37" s="164">
@@ -46274,7 +46315,7 @@
       <c r="B38" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="164">
@@ -46334,7 +46375,7 @@
       <c r="B39" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F39" s="164">
@@ -46456,7 +46497,7 @@
       <c r="B41" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F41" s="164">
@@ -46516,7 +46557,7 @@
       <c r="B42" s="157" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F42" s="164">
@@ -46576,7 +46617,7 @@
       <c r="B43" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F43" s="164">
@@ -46636,7 +46677,7 @@
       <c r="B44" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F44" s="164">
@@ -46758,7 +46799,7 @@
       <c r="B46" s="162" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="239" t="s">
         <v>88</v>
       </c>
       <c r="F46" s="164">
@@ -46841,1391 +46882,1978 @@
       <c r="Q48" s="172"/>
       <c r="R48" s="172"/>
     </row>
-    <row r="53" spans="2:18" ht="20.25">
-      <c r="B53" s="160" t="s">
+    <row r="49" spans="2:18" ht="20.25">
+      <c r="B49" s="160" t="s">
         <v>265</v>
       </c>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="178"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="178"/>
-      <c r="Q53" s="178"/>
-      <c r="R53" s="178"/>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="237" t="s">
+      <c r="C49" s="234"/>
+      <c r="D49" s="234"/>
+      <c r="E49" s="234"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="235"/>
+      <c r="H49" s="235"/>
+      <c r="I49" s="235"/>
+      <c r="J49" s="235"/>
+      <c r="K49" s="235"/>
+      <c r="L49" s="235"/>
+      <c r="M49" s="235"/>
+      <c r="N49" s="235"/>
+      <c r="O49" s="235"/>
+      <c r="P49" s="235"/>
+      <c r="Q49" s="235"/>
+      <c r="R49" s="235"/>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="236" t="s">
         <v>305</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="239"/>
-      <c r="E54" s="239"/>
-      <c r="F54" s="239"/>
-      <c r="G54" s="242"/>
-      <c r="H54" s="242"/>
-      <c r="I54" s="242"/>
-      <c r="J54" s="242"/>
-      <c r="K54" s="242"/>
-      <c r="L54" s="242"/>
-      <c r="M54" s="242"/>
-      <c r="N54" s="242"/>
-      <c r="O54" s="242"/>
-      <c r="P54" s="242"/>
-      <c r="Q54" s="242"/>
-      <c r="R54" s="242"/>
-    </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="234" t="s">
+      <c r="C50" s="236"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="237"/>
+      <c r="G50" s="238"/>
+      <c r="H50" s="238"/>
+      <c r="I50" s="238"/>
+      <c r="J50" s="238"/>
+      <c r="K50" s="238"/>
+      <c r="L50" s="238"/>
+      <c r="M50" s="238"/>
+      <c r="N50" s="238"/>
+      <c r="O50" s="238"/>
+      <c r="P50" s="238"/>
+      <c r="Q50" s="238"/>
+      <c r="R50" s="238"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="C55" s="234" t="s">
+      <c r="C51" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="215"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="241">
+      <c r="D51" s="240"/>
+      <c r="E51" s="240"/>
+      <c r="F51" s="241">
         <f>F14/F6</f>
         <v>0.18367571356369608</v>
       </c>
-      <c r="G55" s="241">
-        <f t="shared" ref="G55:R55" si="26">G14/G6</f>
+      <c r="G51" s="241">
+        <f t="shared" ref="G51:R51" si="26">G14/G6</f>
         <v>0.12734009064934348</v>
       </c>
-      <c r="H55" s="241">
+      <c r="H51" s="241">
         <f t="shared" si="26"/>
         <v>0.10547675394426401</v>
       </c>
-      <c r="I55" s="241">
+      <c r="I51" s="241">
         <f t="shared" si="26"/>
         <v>0.18371216971688242</v>
       </c>
-      <c r="J55" s="241">
+      <c r="J51" s="241">
         <f t="shared" si="26"/>
         <v>0.25438581876567695</v>
       </c>
-      <c r="K55" s="241">
+      <c r="K51" s="241">
         <f t="shared" si="26"/>
         <v>0.26386138436553253</v>
       </c>
-      <c r="L55" s="241">
+      <c r="L51" s="241">
         <f t="shared" si="26"/>
         <v>0.27001776365378921</v>
       </c>
-      <c r="M55" s="241">
+      <c r="M51" s="241">
         <f t="shared" si="26"/>
         <v>0.28380322096431426</v>
       </c>
-      <c r="N55" s="241">
+      <c r="N51" s="241">
         <f t="shared" si="26"/>
         <v>0.30194479827609355</v>
       </c>
-      <c r="O55" s="241">
+      <c r="O51" s="241">
         <f t="shared" si="26"/>
         <v>2.7873031853809887E-2</v>
       </c>
-      <c r="P55" s="241">
+      <c r="P51" s="241">
         <f t="shared" si="26"/>
         <v>2.9896152863673184E-2</v>
       </c>
-      <c r="Q55" s="241">
+      <c r="Q51" s="241">
         <f t="shared" si="26"/>
         <v>3.5448934665023128E-2</v>
       </c>
-      <c r="R55" s="241">
+      <c r="R51" s="241">
         <f t="shared" si="26"/>
         <v>3.5772784802178499E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="234" t="s">
+    <row r="52" spans="2:18">
+      <c r="B52" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="C56" s="234" t="s">
+      <c r="C52" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="215"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="180">
+      <c r="D52" s="240"/>
+      <c r="E52" s="240"/>
+      <c r="F52" s="242">
         <f>F14/(AVERAGE(E40:F40))</f>
         <v>8.1608251486920719E-2</v>
       </c>
-      <c r="G56" s="180">
-        <f t="shared" ref="G56:R56" si="27">G14/(AVERAGE(F40:G40))</f>
+      <c r="G52" s="242">
+        <f t="shared" ref="G52:R52" si="27">G14/(AVERAGE(F40:G40))</f>
         <v>5.1885110172010536E-2</v>
       </c>
-      <c r="H56" s="180">
+      <c r="H52" s="242">
         <f t="shared" si="27"/>
         <v>4.1023743381780081E-2</v>
       </c>
-      <c r="I56" s="180">
+      <c r="I52" s="242">
         <f t="shared" si="27"/>
         <v>7.1033733125772242E-2</v>
       </c>
-      <c r="J56" s="180">
+      <c r="J52" s="242">
         <f t="shared" si="27"/>
         <v>0.10226768696790192</v>
       </c>
-      <c r="K56" s="180">
+      <c r="K52" s="242">
         <f t="shared" si="27"/>
         <v>0.10322140820434651</v>
       </c>
-      <c r="L56" s="180">
+      <c r="L52" s="242">
         <f t="shared" si="27"/>
         <v>0.10307359395023551</v>
       </c>
-      <c r="M56" s="180">
+      <c r="M52" s="242">
         <f t="shared" si="27"/>
         <v>0.10687445588175565</v>
       </c>
-      <c r="N56" s="180">
+      <c r="N52" s="242">
         <f t="shared" si="27"/>
         <v>0.10858878697720674</v>
       </c>
-      <c r="O56" s="180">
+      <c r="O52" s="242">
         <f t="shared" si="27"/>
         <v>7.4889205808069247E-3</v>
       </c>
-      <c r="P56" s="180">
+      <c r="P52" s="242">
         <f t="shared" si="27"/>
         <v>8.246445456291409E-3</v>
       </c>
-      <c r="Q56" s="180">
+      <c r="Q52" s="242">
         <f t="shared" si="27"/>
         <v>9.9723849819132789E-3</v>
       </c>
-      <c r="R56" s="180">
+      <c r="R52" s="242">
         <f t="shared" si="27"/>
         <v>1.0256247973199906E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:18">
-      <c r="B57" s="234" t="s">
+    <row r="53" spans="2:18">
+      <c r="B53" s="239" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="234" t="s">
+      <c r="C53" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="180">
+      <c r="D53" s="223"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="242">
         <f>F14/F41:G41</f>
         <v>14.264105627015251</v>
       </c>
-      <c r="G57" s="180">
-        <f t="shared" ref="G57:R57" si="28">G14/G41:H41</f>
+      <c r="G53" s="242">
+        <f t="shared" ref="G53:R53" si="28">G14/G41:H41</f>
         <v>9.3159755382921201</v>
       </c>
-      <c r="H57" s="180">
+      <c r="H53" s="242">
         <f t="shared" si="28"/>
         <v>7.7173460782222287</v>
       </c>
-      <c r="I57" s="180">
+      <c r="I53" s="242">
         <f t="shared" si="28"/>
         <v>14.14241031592881</v>
       </c>
-      <c r="J57" s="180">
+      <c r="J53" s="242">
         <f t="shared" si="28"/>
         <v>21.629966261759524</v>
       </c>
-      <c r="K57" s="180">
+      <c r="K53" s="242">
         <f t="shared" si="28"/>
         <v>22.940609376512676</v>
       </c>
-      <c r="L57" s="180">
+      <c r="L53" s="242">
         <f t="shared" si="28"/>
         <v>24.056895977923688</v>
       </c>
-      <c r="M57" s="180">
+      <c r="M53" s="242">
         <f t="shared" si="28"/>
         <v>26.219312086594577</v>
       </c>
-      <c r="N57" s="180">
+      <c r="N53" s="242">
         <f t="shared" si="28"/>
         <v>28.899563322141908</v>
       </c>
-      <c r="O57" s="180">
+      <c r="O53" s="242">
         <f t="shared" si="28"/>
         <v>2.1102756671326315</v>
       </c>
-      <c r="P57" s="180">
+      <c r="P53" s="242">
         <f t="shared" si="28"/>
         <v>2.3433148258232621</v>
       </c>
-      <c r="Q57" s="180">
+      <c r="Q53" s="242">
         <f t="shared" si="28"/>
         <v>2.8611339254896562</v>
       </c>
-      <c r="R57" s="180">
+      <c r="R53" s="242">
         <f t="shared" si="28"/>
         <v>2.9738905004943263</v>
       </c>
     </row>
-    <row r="58" spans="2:18">
-      <c r="B58" s="234"/>
-      <c r="C58" s="234"/>
-    </row>
-    <row r="59" spans="2:18">
-      <c r="B59" s="237" t="s">
+    <row r="54" spans="2:18">
+      <c r="B54" s="239"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="223"/>
+      <c r="F54" s="223"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="223"/>
+      <c r="I54" s="223"/>
+      <c r="J54" s="223"/>
+      <c r="K54" s="223"/>
+      <c r="L54" s="223"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="223"/>
+      <c r="O54" s="223"/>
+      <c r="P54" s="223"/>
+      <c r="Q54" s="223"/>
+      <c r="R54" s="223"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="236" t="s">
         <v>309</v>
       </c>
-      <c r="C59" s="237"/>
-      <c r="D59" s="239"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="238">
-        <f>PRODUCT(F60:F64)</f>
+      <c r="C55" s="236"/>
+      <c r="D55" s="237"/>
+      <c r="E55" s="237"/>
+      <c r="F55" s="243">
+        <f>PRODUCT(F56:F60)</f>
         <v>14.264105627015251</v>
       </c>
-      <c r="G59" s="238">
-        <f t="shared" ref="G59:R59" si="29">PRODUCT(G60:G64)</f>
+      <c r="G55" s="243">
+        <f t="shared" ref="G55:R55" si="29">PRODUCT(G56:G60)</f>
         <v>9.3159755382921183</v>
       </c>
-      <c r="H59" s="238">
+      <c r="H55" s="243">
         <f t="shared" si="29"/>
         <v>7.7173460782222278</v>
       </c>
-      <c r="I59" s="238">
+      <c r="I55" s="243">
         <f t="shared" si="29"/>
         <v>14.142410315928808</v>
       </c>
-      <c r="J59" s="238">
+      <c r="J55" s="243">
         <f t="shared" si="29"/>
         <v>21.62996626175952</v>
       </c>
-      <c r="K59" s="238">
+      <c r="K55" s="243">
         <f t="shared" si="29"/>
         <v>22.940609376512679</v>
       </c>
-      <c r="L59" s="238">
+      <c r="L55" s="243">
         <f t="shared" si="29"/>
         <v>24.056895977923688</v>
       </c>
-      <c r="M59" s="238">
+      <c r="M55" s="243">
         <f t="shared" si="29"/>
         <v>26.219312086594581</v>
       </c>
-      <c r="N59" s="238">
+      <c r="N55" s="243">
         <f t="shared" si="29"/>
         <v>28.899563322141912</v>
       </c>
-      <c r="O59" s="238">
+      <c r="O55" s="243">
         <f t="shared" si="29"/>
         <v>2.1102756671326315</v>
       </c>
-      <c r="P59" s="238">
+      <c r="P55" s="243">
         <f t="shared" si="29"/>
         <v>2.3433148258232626</v>
       </c>
-      <c r="Q59" s="238">
+      <c r="Q55" s="243">
         <f t="shared" si="29"/>
         <v>2.8611339254896566</v>
       </c>
-      <c r="R59" s="238">
+      <c r="R55" s="243">
         <f t="shared" si="29"/>
         <v>2.9738905004943263</v>
       </c>
     </row>
-    <row r="60" spans="2:18">
-      <c r="B60" s="234" t="s">
+    <row r="56" spans="2:18">
+      <c r="B56" s="239" t="s">
         <v>310</v>
       </c>
-      <c r="C60" s="234" t="s">
+      <c r="C56" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="215"/>
-      <c r="E60" s="215"/>
-      <c r="F60" s="241">
+      <c r="D56" s="240"/>
+      <c r="E56" s="240"/>
+      <c r="F56" s="241">
         <f>F14/F12</f>
         <v>0.8</v>
       </c>
-      <c r="G60" s="241">
-        <f t="shared" ref="G60:R60" si="30">G14/G12</f>
+      <c r="G56" s="241">
+        <f t="shared" ref="G56:R56" si="30">G14/G12</f>
         <v>0.8</v>
       </c>
-      <c r="H60" s="241">
+      <c r="H56" s="241">
         <f t="shared" si="30"/>
         <v>0.8</v>
       </c>
-      <c r="I60" s="241">
+      <c r="I56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="J60" s="241">
+      <c r="J56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="K60" s="241">
+      <c r="K56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="L60" s="241">
+      <c r="L56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="M60" s="241">
+      <c r="M56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="N60" s="241">
+      <c r="N56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="O60" s="241">
+      <c r="O56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="P60" s="241">
+      <c r="P56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="Q60" s="241">
+      <c r="Q56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
-      <c r="R60" s="241">
+      <c r="R56" s="241">
         <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="2:18">
-      <c r="B61" s="234" t="s">
+    <row r="57" spans="2:18">
+      <c r="B57" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="C61" s="234" t="s">
+      <c r="C57" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="180">
+      <c r="D57" s="223"/>
+      <c r="E57" s="223"/>
+      <c r="F57" s="242">
         <f>F12/F10</f>
         <v>0.83591287693583283</v>
       </c>
-      <c r="G61" s="180">
-        <f t="shared" ref="G61:R61" si="31">G12/G10</f>
+      <c r="G57" s="242">
+        <f t="shared" ref="G57:R57" si="31">G12/G10</f>
         <v>0.76890016068861333</v>
       </c>
-      <c r="H61" s="180">
+      <c r="H57" s="242">
         <f t="shared" si="31"/>
         <v>0.73377314208592714</v>
       </c>
-      <c r="I61" s="180">
+      <c r="I57" s="242">
         <f t="shared" si="31"/>
         <v>0.77102245955360293</v>
       </c>
-      <c r="J61" s="180">
+      <c r="J57" s="242">
         <f t="shared" si="31"/>
         <v>0.83739816159891889</v>
       </c>
-      <c r="K61" s="180">
+      <c r="K57" s="242">
         <f t="shared" si="31"/>
         <v>0.87577456655537633</v>
       </c>
-      <c r="L61" s="180">
+      <c r="L57" s="242">
         <f t="shared" si="31"/>
         <v>0.91475390775705745</v>
       </c>
-      <c r="M61" s="180">
+      <c r="M57" s="242">
         <f t="shared" si="31"/>
         <v>0.95767284216729509</v>
       </c>
-      <c r="N61" s="180">
+      <c r="N57" s="242">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="O61" s="180">
+      <c r="O57" s="242">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="P61" s="180">
+      <c r="P57" s="242">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="Q61" s="180">
+      <c r="Q57" s="242">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="R61" s="180">
+      <c r="R57" s="242">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:18">
-      <c r="B62" s="234" t="s">
+    <row r="58" spans="2:18">
+      <c r="B58" s="239" t="s">
         <v>312</v>
       </c>
-      <c r="C62" s="234" t="s">
+      <c r="C58" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="180">
+      <c r="D58" s="223"/>
+      <c r="E58" s="223"/>
+      <c r="F58" s="242">
         <f>F10/F6</f>
         <v>0.27466336300050143</v>
       </c>
-      <c r="G62" s="180">
-        <f t="shared" ref="G62:R62" si="32">G10/G6</f>
+      <c r="G58" s="242">
+        <f t="shared" ref="G58:R58" si="32">G10/G6</f>
         <v>0.20701662120752445</v>
       </c>
-      <c r="H62" s="180">
+      <c r="H58" s="242">
         <f t="shared" si="32"/>
         <v>0.17968215906012328</v>
       </c>
-      <c r="I62" s="180">
+      <c r="I58" s="242">
         <f t="shared" si="32"/>
         <v>0.19855903400363314</v>
       </c>
-      <c r="J62" s="180">
+      <c r="J58" s="242">
         <f t="shared" si="32"/>
         <v>0.25315100035562876</v>
       </c>
-      <c r="K62" s="180">
+      <c r="K58" s="242">
         <f t="shared" si="32"/>
         <v>0.25107430081708537</v>
       </c>
-      <c r="L62" s="180">
+      <c r="L58" s="242">
         <f t="shared" si="32"/>
         <v>0.24598397573020736</v>
       </c>
-      <c r="M62" s="180">
+      <c r="M58" s="242">
         <f t="shared" si="32"/>
         <v>0.24695561336134675</v>
       </c>
-      <c r="N62" s="180">
+      <c r="N58" s="242">
         <f t="shared" si="32"/>
         <v>0.25162066523007798</v>
       </c>
-      <c r="O62" s="180">
+      <c r="O58" s="242">
         <f t="shared" si="32"/>
         <v>2.322752654484157E-2</v>
       </c>
-      <c r="P62" s="180">
+      <c r="P58" s="242">
         <f t="shared" si="32"/>
         <v>2.4913460719727654E-2</v>
       </c>
-      <c r="Q62" s="180">
+      <c r="Q58" s="242">
         <f t="shared" si="32"/>
         <v>2.9540778887519274E-2</v>
       </c>
-      <c r="R62" s="180">
+      <c r="R58" s="242">
         <f t="shared" si="32"/>
         <v>2.9810654001815418E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:18">
-      <c r="B63" s="234" t="s">
+    <row r="59" spans="2:18">
+      <c r="B59" s="239" t="s">
         <v>313</v>
       </c>
-      <c r="C63" s="234" t="s">
+      <c r="C59" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F63" s="235">
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="244">
         <f>F6/F40</f>
         <v>0.44430616276669666</v>
       </c>
-      <c r="G63" s="235">
-        <f t="shared" ref="G63:R63" si="33">G6/AVERAGE(F40:G40)</f>
+      <c r="G59" s="244">
+        <f t="shared" ref="G59:R59" si="33">G6/AVERAGE(F40:G40)</f>
         <v>0.40745306452534735</v>
       </c>
-      <c r="H63" s="235">
+      <c r="H59" s="244">
         <f t="shared" si="33"/>
         <v>0.3889363470879833</v>
       </c>
-      <c r="I63" s="235">
+      <c r="I59" s="244">
         <f t="shared" si="33"/>
         <v>0.386657744205198</v>
       </c>
-      <c r="J63" s="235">
+      <c r="J59" s="244">
         <f t="shared" si="33"/>
         <v>0.4020180349050983</v>
       </c>
-      <c r="K63" s="235">
+      <c r="K59" s="244">
         <f t="shared" si="33"/>
         <v>0.39119558344070465</v>
       </c>
-      <c r="L63" s="235">
+      <c r="L59" s="244">
         <f t="shared" si="33"/>
         <v>0.38172893722056811</v>
       </c>
-      <c r="M63" s="235">
+      <c r="M59" s="244">
         <f t="shared" si="33"/>
         <v>0.37657943246244607</v>
       </c>
-      <c r="N63" s="235">
+      <c r="N59" s="244">
         <f t="shared" si="33"/>
         <v>0.35963125576985389</v>
       </c>
-      <c r="O63" s="235">
+      <c r="O59" s="244">
         <f t="shared" si="33"/>
         <v>0.26867979845483819</v>
       </c>
-      <c r="P63" s="235">
+      <c r="P59" s="244">
         <f t="shared" si="33"/>
         <v>0.27583634235131521</v>
       </c>
-      <c r="Q63" s="235">
+      <c r="Q59" s="244">
         <f t="shared" si="33"/>
         <v>0.28131691618233212</v>
       </c>
-      <c r="R63" s="235">
+      <c r="R59" s="244">
         <f t="shared" si="33"/>
         <v>0.28670532724573677</v>
       </c>
     </row>
-    <row r="64" spans="2:18">
-      <c r="B64" s="234" t="s">
+    <row r="60" spans="2:18">
+      <c r="B60" s="239" t="s">
         <v>314</v>
       </c>
-      <c r="C64" s="234" t="s">
+      <c r="C60" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F64" s="236">
+      <c r="D60" s="223"/>
+      <c r="E60" s="223"/>
+      <c r="F60" s="245">
         <f>AVERAGE(E40:F40)/AVERAGE(E41:F41)</f>
         <v>174.78754129784716</v>
       </c>
-      <c r="G64" s="236">
-        <f t="shared" ref="G64:R64" si="34">AVERAGE(F40:G40)/AVERAGE(F41:G41)</f>
+      <c r="G60" s="245">
+        <f t="shared" ref="G60:R60" si="34">AVERAGE(F40:G40)/AVERAGE(F41:G41)</f>
         <v>179.55007722654176</v>
       </c>
-      <c r="H64" s="236">
+      <c r="H60" s="245">
         <f t="shared" si="34"/>
         <v>188.1190121145732</v>
       </c>
-      <c r="I64" s="236">
+      <c r="I60" s="245">
         <f t="shared" si="34"/>
         <v>199.0942851178647</v>
       </c>
-      <c r="J64" s="236">
+      <c r="J60" s="245">
         <f t="shared" si="34"/>
         <v>211.50342696758534</v>
       </c>
-      <c r="K64" s="236">
+      <c r="K60" s="245">
         <f t="shared" si="34"/>
         <v>222.24662282360413</v>
       </c>
-      <c r="L64" s="236">
+      <c r="L60" s="245">
         <f t="shared" si="34"/>
         <v>233.39533488604741</v>
       </c>
-      <c r="M64" s="236">
+      <c r="M60" s="245">
         <f t="shared" si="34"/>
         <v>245.32814572270894</v>
       </c>
-      <c r="N64" s="236">
+      <c r="N60" s="245">
         <f t="shared" si="34"/>
         <v>266.13763839362213</v>
       </c>
-      <c r="O64" s="236">
+      <c r="O60" s="245">
         <f t="shared" si="34"/>
         <v>281.78635951100591</v>
       </c>
-      <c r="P64" s="236">
+      <c r="P60" s="245">
         <f t="shared" si="34"/>
         <v>284.16059237201307</v>
       </c>
-      <c r="Q64" s="236">
+      <c r="Q60" s="245">
         <f t="shared" si="34"/>
         <v>286.9056831117972</v>
       </c>
-      <c r="R64" s="236">
+      <c r="R60" s="245">
         <f t="shared" si="34"/>
         <v>289.95891170584531</v>
       </c>
     </row>
-    <row r="65" spans="2:18">
-      <c r="B65" s="234"/>
-      <c r="C65" s="234"/>
-    </row>
-    <row r="66" spans="2:18">
-      <c r="B66" s="237" t="s">
+    <row r="61" spans="2:18">
+      <c r="B61" s="239"/>
+      <c r="C61" s="239"/>
+      <c r="D61" s="223"/>
+      <c r="E61" s="223"/>
+      <c r="F61" s="223"/>
+      <c r="G61" s="223"/>
+      <c r="H61" s="223"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="223"/>
+      <c r="K61" s="223"/>
+      <c r="L61" s="223"/>
+      <c r="M61" s="223"/>
+      <c r="N61" s="223"/>
+      <c r="O61" s="223"/>
+      <c r="P61" s="223"/>
+      <c r="Q61" s="223"/>
+      <c r="R61" s="223"/>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="236" t="s">
         <v>315</v>
       </c>
-      <c r="C66" s="237"/>
-      <c r="D66" s="239"/>
-      <c r="E66" s="239"/>
-      <c r="F66" s="239"/>
-      <c r="G66" s="239"/>
-      <c r="H66" s="239"/>
-      <c r="I66" s="239"/>
-      <c r="J66" s="239"/>
-      <c r="K66" s="239"/>
-      <c r="L66" s="239"/>
-      <c r="M66" s="239"/>
-      <c r="N66" s="239"/>
-      <c r="O66" s="239"/>
-      <c r="P66" s="239"/>
-      <c r="Q66" s="239"/>
-      <c r="R66" s="239"/>
-    </row>
-    <row r="67" spans="2:18">
-      <c r="B67" s="234" t="s">
+      <c r="C62" s="236"/>
+      <c r="D62" s="237"/>
+      <c r="E62" s="237"/>
+      <c r="F62" s="237"/>
+      <c r="G62" s="237"/>
+      <c r="H62" s="237"/>
+      <c r="I62" s="237"/>
+      <c r="J62" s="237"/>
+      <c r="K62" s="237"/>
+      <c r="L62" s="237"/>
+      <c r="M62" s="237"/>
+      <c r="N62" s="237"/>
+      <c r="O62" s="237"/>
+      <c r="P62" s="237"/>
+      <c r="Q62" s="237"/>
+      <c r="R62" s="237"/>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="239" t="s">
         <v>316</v>
       </c>
-      <c r="C67" s="234" t="s">
+      <c r="C63" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F67" s="240">
+      <c r="D63" s="223"/>
+      <c r="E63" s="223"/>
+      <c r="F63" s="246">
         <f>IFERROR(F39/F43,"Inf")</f>
         <v>0.4</v>
       </c>
-      <c r="G67" s="240">
-        <f t="shared" ref="G67:R67" si="35">IFERROR(G39/G43,"Inf")</f>
+      <c r="G63" s="246">
+        <f t="shared" ref="G63:R63" si="35">IFERROR(G39/G43,"Inf")</f>
         <v>0.57059784223639365</v>
       </c>
-      <c r="H67" s="240">
+      <c r="H63" s="246">
         <f t="shared" si="35"/>
         <v>0.87835202184031225</v>
       </c>
-      <c r="I67" s="240">
+      <c r="I63" s="246">
         <f t="shared" si="35"/>
         <v>1.156823154575888</v>
       </c>
-      <c r="J67" s="240">
+      <c r="J63" s="246">
         <f t="shared" si="35"/>
         <v>1.9699478427785468</v>
       </c>
-      <c r="K67" s="240">
+      <c r="K63" s="246">
         <f t="shared" si="35"/>
         <v>3.5894445420766004</v>
       </c>
-      <c r="L67" s="240">
+      <c r="L63" s="246">
         <f t="shared" si="35"/>
         <v>7.6812319916552445</v>
       </c>
-      <c r="M67" s="240" t="str">
+      <c r="M63" s="246" t="str">
         <f t="shared" si="35"/>
         <v>Inf</v>
       </c>
-      <c r="N67" s="240" t="str">
+      <c r="N63" s="246" t="str">
         <f t="shared" si="35"/>
         <v>Inf</v>
       </c>
-      <c r="O67" s="240" t="str">
+      <c r="O63" s="246" t="str">
         <f t="shared" si="35"/>
         <v>Inf</v>
       </c>
-      <c r="P67" s="240" t="str">
+      <c r="P63" s="246" t="str">
         <f t="shared" si="35"/>
         <v>Inf</v>
       </c>
-      <c r="Q67" s="240" t="str">
+      <c r="Q63" s="246" t="str">
         <f t="shared" si="35"/>
         <v>Inf</v>
       </c>
-      <c r="R67" s="240" t="str">
+      <c r="R63" s="246" t="str">
         <f t="shared" si="35"/>
         <v>Inf</v>
       </c>
     </row>
-    <row r="68" spans="2:18">
-      <c r="B68" s="234" t="s">
+    <row r="64" spans="2:18">
+      <c r="B64" s="239" t="s">
         <v>317</v>
       </c>
-      <c r="C68" s="234" t="s">
+      <c r="C64" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F68" s="240">
+      <c r="D64" s="223"/>
+      <c r="E64" s="223"/>
+      <c r="F64" s="246">
         <f>IFERROR((F39+F37)/F43,"Inf")</f>
         <v>0.52758879999999997</v>
       </c>
-      <c r="G68" s="240">
-        <f t="shared" ref="G68:R68" si="36">IFERROR((G39+G37)/G43,"Inf")</f>
+      <c r="G64" s="246">
+        <f t="shared" ref="G64:R64" si="36">IFERROR((G39+G37)/G43,"Inf")</f>
         <v>0.6886176092739974</v>
       </c>
-      <c r="H68" s="240">
+      <c r="H64" s="246">
         <f t="shared" si="36"/>
         <v>1.0011563053591142</v>
       </c>
-      <c r="I68" s="240">
+      <c r="I64" s="246">
         <f t="shared" si="36"/>
         <v>1.2847668076935554</v>
       </c>
-      <c r="J68" s="240">
+      <c r="J64" s="246">
         <f t="shared" si="36"/>
         <v>2.1523467924384128</v>
       </c>
-      <c r="K68" s="240">
+      <c r="K64" s="246">
         <f t="shared" si="36"/>
         <v>3.8601530137524049</v>
       </c>
-      <c r="L68" s="240">
+      <c r="L64" s="246">
         <f t="shared" si="36"/>
         <v>8.2179010487350865</v>
       </c>
-      <c r="M68" s="184" t="str">
+      <c r="M64" s="247" t="str">
         <f t="shared" si="36"/>
         <v>Inf</v>
       </c>
-      <c r="N68" s="184" t="str">
+      <c r="N64" s="247" t="str">
         <f t="shared" si="36"/>
         <v>Inf</v>
       </c>
-      <c r="O68" s="184" t="str">
+      <c r="O64" s="247" t="str">
         <f t="shared" si="36"/>
         <v>Inf</v>
       </c>
-      <c r="P68" s="184" t="str">
+      <c r="P64" s="247" t="str">
         <f t="shared" si="36"/>
         <v>Inf</v>
       </c>
-      <c r="Q68" s="184" t="str">
+      <c r="Q64" s="247" t="str">
         <f t="shared" si="36"/>
         <v>Inf</v>
       </c>
-      <c r="R68" s="184" t="str">
+      <c r="R64" s="247" t="str">
         <f t="shared" si="36"/>
         <v>Inf</v>
       </c>
     </row>
-    <row r="69" spans="2:18">
-      <c r="B69" s="234" t="s">
+    <row r="65" spans="2:18">
+      <c r="B65" s="239" t="s">
         <v>318</v>
       </c>
-      <c r="C69" s="234" t="s">
+      <c r="C65" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F69" s="240">
+      <c r="D65" s="223"/>
+      <c r="E65" s="223"/>
+      <c r="F65" s="246">
         <f>IFERROR((F39+F38+F37)/F43,"Inf")</f>
         <v>0.55746600000000002</v>
       </c>
-      <c r="G69" s="240">
-        <f t="shared" ref="G69:R69" si="37">IFERROR((G39+G38+G37)/G43,"Inf")</f>
+      <c r="G65" s="246">
+        <f t="shared" ref="G65:R65" si="37">IFERROR((G39+G38+G37)/G43,"Inf")</f>
         <v>0.71346535497872654</v>
       </c>
-      <c r="H69" s="240">
+      <c r="H65" s="246">
         <f t="shared" si="37"/>
         <v>1.0285187782114786</v>
       </c>
-      <c r="I69" s="240">
+      <c r="I65" s="246">
         <f t="shared" si="37"/>
         <v>1.3128135427492738</v>
       </c>
-      <c r="J69" s="240">
+      <c r="J65" s="246">
         <f t="shared" si="37"/>
         <v>2.1896941798851186</v>
       </c>
-      <c r="K69" s="240">
+      <c r="K65" s="246">
         <f t="shared" si="37"/>
         <v>3.9160719769925136</v>
       </c>
-      <c r="L69" s="240">
+      <c r="L65" s="246">
         <f t="shared" si="37"/>
         <v>8.329759569593687</v>
       </c>
-      <c r="M69" s="184" t="str">
+      <c r="M65" s="247" t="str">
         <f t="shared" si="37"/>
         <v>Inf</v>
       </c>
-      <c r="N69" s="184" t="str">
+      <c r="N65" s="247" t="str">
         <f t="shared" si="37"/>
         <v>Inf</v>
       </c>
-      <c r="O69" s="184" t="str">
+      <c r="O65" s="247" t="str">
         <f t="shared" si="37"/>
         <v>Inf</v>
       </c>
-      <c r="P69" s="184" t="str">
+      <c r="P65" s="247" t="str">
         <f t="shared" si="37"/>
         <v>Inf</v>
       </c>
-      <c r="Q69" s="184" t="str">
+      <c r="Q65" s="247" t="str">
         <f t="shared" si="37"/>
         <v>Inf</v>
       </c>
-      <c r="R69" s="184" t="str">
+      <c r="R65" s="247" t="str">
         <f t="shared" si="37"/>
         <v>Inf</v>
       </c>
     </row>
-    <row r="70" spans="2:18">
-      <c r="B70" s="234"/>
-      <c r="C70" s="234"/>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="B71" s="237" t="s">
+    <row r="66" spans="2:18">
+      <c r="B66" s="239"/>
+      <c r="C66" s="239"/>
+      <c r="D66" s="223"/>
+      <c r="E66" s="223"/>
+      <c r="F66" s="223"/>
+      <c r="G66" s="223"/>
+      <c r="H66" s="223"/>
+      <c r="I66" s="223"/>
+      <c r="J66" s="223"/>
+      <c r="K66" s="223"/>
+      <c r="L66" s="223"/>
+      <c r="M66" s="223"/>
+      <c r="N66" s="223"/>
+      <c r="O66" s="223"/>
+      <c r="P66" s="223"/>
+      <c r="Q66" s="223"/>
+      <c r="R66" s="223"/>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="236" t="s">
         <v>319</v>
       </c>
-      <c r="C71" s="237"/>
-      <c r="D71" s="239"/>
-      <c r="E71" s="239"/>
-      <c r="F71" s="239"/>
-      <c r="G71" s="239"/>
-      <c r="H71" s="239"/>
-      <c r="I71" s="239"/>
-      <c r="J71" s="239"/>
-      <c r="K71" s="239"/>
-      <c r="L71" s="239"/>
-      <c r="M71" s="239"/>
-      <c r="N71" s="239"/>
-      <c r="O71" s="239"/>
-      <c r="P71" s="239"/>
-      <c r="Q71" s="239"/>
-      <c r="R71" s="239"/>
-    </row>
-    <row r="72" spans="2:18">
-      <c r="B72" s="234" t="s">
+      <c r="C67" s="236"/>
+      <c r="D67" s="237"/>
+      <c r="E67" s="237"/>
+      <c r="F67" s="237"/>
+      <c r="G67" s="237"/>
+      <c r="H67" s="237"/>
+      <c r="I67" s="237"/>
+      <c r="J67" s="237"/>
+      <c r="K67" s="237"/>
+      <c r="L67" s="237"/>
+      <c r="M67" s="237"/>
+      <c r="N67" s="237"/>
+      <c r="O67" s="237"/>
+      <c r="P67" s="237"/>
+      <c r="Q67" s="237"/>
+      <c r="R67" s="237"/>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="239" t="s">
         <v>320</v>
       </c>
-      <c r="C72" s="234" t="s">
+      <c r="C68" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F72" s="184">
+      <c r="D68" s="223"/>
+      <c r="E68" s="223"/>
+      <c r="F68" s="247">
         <f>F6/AVERAGE(E40:F40)</f>
         <v>0.44430616276669666</v>
       </c>
-      <c r="G72" s="184">
-        <f t="shared" ref="G72:R72" si="38">G6/AVERAGE(F40:G40)</f>
+      <c r="G68" s="247">
+        <f t="shared" ref="G68:R68" si="38">G6/AVERAGE(F40:G40)</f>
         <v>0.40745306452534735</v>
       </c>
-      <c r="H72" s="184">
+      <c r="H68" s="247">
         <f t="shared" si="38"/>
         <v>0.3889363470879833</v>
       </c>
-      <c r="I72" s="184">
+      <c r="I68" s="247">
         <f t="shared" si="38"/>
         <v>0.386657744205198</v>
       </c>
-      <c r="J72" s="184">
+      <c r="J68" s="247">
         <f t="shared" si="38"/>
         <v>0.4020180349050983</v>
       </c>
-      <c r="K72" s="184">
+      <c r="K68" s="247">
         <f t="shared" si="38"/>
         <v>0.39119558344070465</v>
       </c>
-      <c r="L72" s="184">
+      <c r="L68" s="247">
         <f t="shared" si="38"/>
         <v>0.38172893722056811</v>
       </c>
-      <c r="M72" s="184">
+      <c r="M68" s="247">
         <f t="shared" si="38"/>
         <v>0.37657943246244607</v>
       </c>
-      <c r="N72" s="184">
+      <c r="N68" s="247">
         <f t="shared" si="38"/>
         <v>0.35963125576985389</v>
       </c>
-      <c r="O72" s="184">
+      <c r="O68" s="247">
         <f t="shared" si="38"/>
         <v>0.26867979845483819</v>
       </c>
-      <c r="P72" s="184">
+      <c r="P68" s="247">
         <f t="shared" si="38"/>
         <v>0.27583634235131521</v>
       </c>
-      <c r="Q72" s="184">
+      <c r="Q68" s="247">
         <f t="shared" si="38"/>
         <v>0.28131691618233212</v>
       </c>
-      <c r="R72" s="184">
+      <c r="R68" s="247">
         <f t="shared" si="38"/>
         <v>0.28670532724573677</v>
       </c>
     </row>
-    <row r="73" spans="2:18">
-      <c r="B73" s="234" t="s">
+    <row r="69" spans="2:18">
+      <c r="B69" s="239" t="s">
         <v>321</v>
       </c>
-      <c r="C73" s="234" t="s">
+      <c r="C69" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F73" s="184">
+      <c r="D69" s="223"/>
+      <c r="E69" s="223"/>
+      <c r="F69" s="247">
         <f>F6/AVERAGE(E36:F36)</f>
         <v>0.52860213609944973</v>
       </c>
-      <c r="G73" s="184">
-        <f t="shared" ref="G73:R73" si="39">G6/AVERAGE(F36:G36)</f>
+      <c r="G69" s="247">
+        <f t="shared" ref="G69:R69" si="39">G6/AVERAGE(F36:G36)</f>
         <v>0.49505898417635869</v>
       </c>
-      <c r="H73" s="184">
+      <c r="H69" s="247">
         <f t="shared" si="39"/>
         <v>0.50609822648265368</v>
       </c>
-      <c r="I73" s="184">
+      <c r="I69" s="247">
         <f t="shared" si="39"/>
         <v>0.54767225413084097</v>
       </c>
-      <c r="J73" s="184">
+      <c r="J69" s="247">
         <f t="shared" si="39"/>
         <v>0.62396738297353194</v>
       </c>
-      <c r="K73" s="184">
+      <c r="K69" s="247">
         <f t="shared" si="39"/>
         <v>0.68149112493069031</v>
       </c>
-      <c r="L73" s="184">
+      <c r="L69" s="247">
         <f t="shared" si="39"/>
         <v>0.72035659149302966</v>
       </c>
-      <c r="M73" s="184">
+      <c r="M69" s="247">
         <f t="shared" si="39"/>
         <v>0.77295808805695165</v>
       </c>
-      <c r="N73" s="184">
+      <c r="N69" s="247">
         <f t="shared" si="39"/>
         <v>0.86759320314004496</v>
       </c>
-      <c r="O73" s="184">
+      <c r="O69" s="247">
         <f t="shared" si="39"/>
         <v>0.71020498718821778</v>
       </c>
-      <c r="P73" s="184">
+      <c r="P69" s="247">
         <f t="shared" si="39"/>
         <v>0.76402481048423376</v>
       </c>
-      <c r="Q73" s="184">
+      <c r="Q69" s="247">
         <f t="shared" si="39"/>
         <v>0.86976955277495838</v>
       </c>
-      <c r="R73" s="184">
+      <c r="R69" s="247">
         <f t="shared" si="39"/>
         <v>0.93123231758668601</v>
       </c>
     </row>
-    <row r="74" spans="2:18">
-      <c r="B74" s="234" t="s">
+    <row r="70" spans="2:18">
+      <c r="B70" s="239" t="s">
         <v>322</v>
       </c>
-      <c r="C74" s="234" t="s">
+      <c r="C70" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F74" s="158">
+      <c r="D70" s="223"/>
+      <c r="E70" s="223"/>
+      <c r="F70" s="248">
         <f>F6/AVERAGE(E38:F38)</f>
         <v>51.985582165311342</v>
       </c>
-      <c r="G74" s="158">
-        <f t="shared" ref="G74:R74" si="40">G6/AVERAGE(F38:G38)</f>
+      <c r="G70" s="248">
+        <f t="shared" ref="G70:R70" si="40">G6/AVERAGE(F38:G38)</f>
         <v>53.47340468564051</v>
       </c>
-      <c r="H74" s="158">
+      <c r="H70" s="248">
         <f t="shared" si="40"/>
         <v>56.055173421373134</v>
       </c>
-      <c r="I74" s="158">
+      <c r="I70" s="248">
         <f t="shared" si="40"/>
         <v>55.572963465222458</v>
       </c>
-      <c r="J74" s="158">
+      <c r="J70" s="248">
         <f t="shared" si="40"/>
         <v>59.68729380008736</v>
       </c>
-      <c r="K74" s="158">
+      <c r="K70" s="248">
         <f t="shared" si="40"/>
         <v>59.160238991966061</v>
       </c>
-      <c r="L74" s="158">
+      <c r="L70" s="248">
         <f t="shared" si="40"/>
         <v>58.69961175127851</v>
       </c>
-      <c r="M74" s="158">
+      <c r="M70" s="248">
         <f t="shared" si="40"/>
         <v>58.73103709356009</v>
       </c>
-      <c r="N74" s="158">
+      <c r="N70" s="248">
         <f t="shared" si="40"/>
         <v>58.656059059076156</v>
       </c>
-      <c r="O74" s="158">
+      <c r="O70" s="248">
         <f t="shared" si="40"/>
         <v>44.830254266726897</v>
       </c>
-      <c r="P74" s="158">
+      <c r="P70" s="248">
         <f t="shared" si="40"/>
         <v>44.85761591924193</v>
       </c>
-      <c r="Q74" s="158">
+      <c r="Q70" s="248">
         <f t="shared" si="40"/>
         <v>44.738824303963227</v>
       </c>
-      <c r="R74" s="158">
+      <c r="R70" s="248">
         <f t="shared" si="40"/>
         <v>44.744823438499004</v>
       </c>
     </row>
-    <row r="75" spans="2:18">
-      <c r="B75" s="234" t="s">
+    <row r="71" spans="2:18">
+      <c r="B71" s="239" t="s">
         <v>323</v>
       </c>
-      <c r="C75" s="234" t="s">
+      <c r="C71" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F75" s="158">
+      <c r="D71" s="223"/>
+      <c r="E71" s="223"/>
+      <c r="F71" s="248">
         <f>F6/AVERAGE(E37:F37)</f>
         <v>12.173354051997041</v>
       </c>
-      <c r="G75" s="158">
-        <f t="shared" ref="G75:R75" si="41">G6/AVERAGE(F37:G37)</f>
+      <c r="G71" s="248">
+        <f t="shared" ref="G71:R71" si="41">G6/AVERAGE(F37:G37)</f>
         <v>11.914605436465314</v>
       </c>
-      <c r="H75" s="158">
+      <c r="H71" s="248">
         <f t="shared" si="41"/>
         <v>12.152660204925043</v>
       </c>
-      <c r="I75" s="158">
+      <c r="I71" s="248">
         <f t="shared" si="41"/>
         <v>12.280276073326421</v>
       </c>
-      <c r="J75" s="158">
+      <c r="J71" s="248">
         <f t="shared" si="41"/>
         <v>12.631330817660825</v>
       </c>
-      <c r="K75" s="158">
+      <c r="K71" s="248">
         <f t="shared" si="41"/>
         <v>12.16754462922192</v>
       </c>
-      <c r="L75" s="158">
+      <c r="L71" s="248">
         <f t="shared" si="41"/>
         <v>12.1807316792567</v>
       </c>
-      <c r="M75" s="158">
+      <c r="M71" s="248">
         <f t="shared" si="41"/>
         <v>12.251906109410704</v>
       </c>
-      <c r="N75" s="158">
+      <c r="N71" s="248">
         <f t="shared" si="41"/>
         <v>12.246408253674071</v>
       </c>
-      <c r="O75" s="158">
+      <c r="O71" s="248">
         <f t="shared" si="41"/>
         <v>10.62957486278936</v>
       </c>
-      <c r="P75" s="158">
+      <c r="P71" s="248">
         <f t="shared" si="41"/>
         <v>12.242261557765097</v>
       </c>
-      <c r="Q75" s="158">
+      <c r="Q71" s="248">
         <f t="shared" si="41"/>
         <v>12.2098414004882</v>
       </c>
-      <c r="R75" s="158">
+      <c r="R71" s="248">
         <f t="shared" si="41"/>
         <v>12.211469758932052</v>
       </c>
     </row>
-    <row r="76" spans="2:18">
-      <c r="B76" s="234" t="s">
+    <row r="72" spans="2:18">
+      <c r="B72" s="239" t="s">
         <v>324</v>
       </c>
-      <c r="C76" s="234" t="s">
+      <c r="C72" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F76" s="158">
+      <c r="D72" s="223"/>
+      <c r="E72" s="223"/>
+      <c r="F72" s="248">
         <f>F6/AVERAGE(E44:F44)</f>
         <v>24.021562518139092</v>
       </c>
-      <c r="G76" s="158">
-        <f t="shared" ref="G76:R76" si="42">G6/AVERAGE(F44:G44)</f>
+      <c r="G72" s="248">
+        <f t="shared" ref="G72:R72" si="42">G6/AVERAGE(F44:G44)</f>
         <v>21.920444071891744</v>
       </c>
-      <c r="H76" s="158">
+      <c r="H72" s="248">
         <f t="shared" si="42"/>
         <v>21.584788062905453</v>
       </c>
-      <c r="I76" s="158">
+      <c r="I72" s="248">
         <f t="shared" si="42"/>
         <v>22.410143605847956</v>
       </c>
-      <c r="J76" s="158">
+      <c r="J72" s="248">
         <f t="shared" si="42"/>
         <v>23.692862612288433</v>
       </c>
-      <c r="K76" s="158">
+      <c r="K72" s="248">
         <f t="shared" si="42"/>
         <v>23.483648282689433</v>
       </c>
-      <c r="L76" s="158">
+      <c r="L72" s="248">
         <f t="shared" si="42"/>
         <v>23.300802366343465</v>
       </c>
-      <c r="M76" s="158">
+      <c r="M72" s="248">
         <f t="shared" si="42"/>
         <v>23.313276651401779</v>
       </c>
-      <c r="N76" s="158">
+      <c r="N72" s="248">
         <f t="shared" si="42"/>
         <v>23.283514131493988</v>
       </c>
-      <c r="O76" s="158">
+      <c r="O72" s="248">
         <f t="shared" si="42"/>
         <v>17.795362925533791</v>
       </c>
-      <c r="P76" s="158">
+      <c r="P72" s="248">
         <f t="shared" si="42"/>
         <v>17.806224129528982</v>
       </c>
-      <c r="Q76" s="158">
+      <c r="Q72" s="248">
         <f t="shared" si="42"/>
         <v>17.759069815082817</v>
       </c>
-      <c r="R76" s="158">
+      <c r="R72" s="248">
         <f t="shared" si="42"/>
         <v>17.761451170666216</v>
       </c>
     </row>
-    <row r="77" spans="2:18">
-      <c r="B77" s="234"/>
-      <c r="C77" s="234"/>
-    </row>
-    <row r="78" spans="2:18">
-      <c r="B78" s="237" t="s">
+    <row r="73" spans="2:18">
+      <c r="B73" s="239"/>
+      <c r="C73" s="239"/>
+      <c r="D73" s="223"/>
+      <c r="E73" s="223"/>
+      <c r="F73" s="223"/>
+      <c r="G73" s="223"/>
+      <c r="H73" s="223"/>
+      <c r="I73" s="223"/>
+      <c r="J73" s="223"/>
+      <c r="K73" s="223"/>
+      <c r="L73" s="223"/>
+      <c r="M73" s="223"/>
+      <c r="N73" s="223"/>
+      <c r="O73" s="223"/>
+      <c r="P73" s="223"/>
+      <c r="Q73" s="223"/>
+      <c r="R73" s="223"/>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="236" t="s">
         <v>325</v>
       </c>
-      <c r="C78" s="237"/>
-      <c r="D78" s="239"/>
-      <c r="E78" s="239"/>
-      <c r="F78" s="239"/>
-      <c r="G78" s="239"/>
-      <c r="H78" s="239"/>
-      <c r="I78" s="239"/>
-      <c r="J78" s="239"/>
-      <c r="K78" s="239"/>
-      <c r="L78" s="239"/>
-      <c r="M78" s="239"/>
-      <c r="N78" s="239"/>
-      <c r="O78" s="239"/>
-      <c r="P78" s="239"/>
-      <c r="Q78" s="239"/>
-      <c r="R78" s="239"/>
-    </row>
-    <row r="79" spans="2:18">
-      <c r="B79" s="234" t="s">
+      <c r="C74" s="236"/>
+      <c r="D74" s="237"/>
+      <c r="E74" s="237"/>
+      <c r="F74" s="237"/>
+      <c r="G74" s="237"/>
+      <c r="H74" s="237"/>
+      <c r="I74" s="237"/>
+      <c r="J74" s="237"/>
+      <c r="K74" s="237"/>
+      <c r="L74" s="237"/>
+      <c r="M74" s="237"/>
+      <c r="N74" s="237"/>
+      <c r="O74" s="237"/>
+      <c r="P74" s="237"/>
+      <c r="Q74" s="237"/>
+      <c r="R74" s="237"/>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="239" t="s">
         <v>326</v>
       </c>
-      <c r="C79" s="234" t="s">
+      <c r="C75" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F79" s="240">
+      <c r="D75" s="223"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="246">
         <f>F43/(F41+F42)</f>
         <v>0.41133762791448519</v>
       </c>
-      <c r="G79" s="240">
-        <f t="shared" ref="G79:R79" si="43">G43/(G41+G42)</f>
+      <c r="G75" s="246">
+        <f t="shared" ref="G75:R75" si="43">G43/(G41+G42)</f>
         <v>0.38205671508147021</v>
       </c>
-      <c r="H79" s="240">
+      <c r="H75" s="246">
         <f t="shared" si="43"/>
         <v>0.36078167995794574</v>
       </c>
-      <c r="I79" s="240">
+      <c r="I75" s="246">
         <f t="shared" si="43"/>
         <v>0.32737429498967657</v>
       </c>
-      <c r="J79" s="240">
+      <c r="J75" s="246">
         <f t="shared" si="43"/>
         <v>0.22217548496678013</v>
       </c>
-      <c r="K79" s="240">
+      <c r="K75" s="246">
         <f t="shared" si="43"/>
         <v>0.13526994856807961</v>
       </c>
-      <c r="L79" s="240">
+      <c r="L75" s="246">
         <f t="shared" si="43"/>
         <v>6.2323095278585212E-2</v>
       </c>
-      <c r="M79" s="240">
+      <c r="M75" s="246">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="N79" s="240">
+      <c r="N75" s="246">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="O79" s="240">
+      <c r="O75" s="246">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="P79" s="240">
+      <c r="P75" s="246">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="240">
+      <c r="Q75" s="246">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="R79" s="240">
+      <c r="R75" s="246">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:18">
-      <c r="B80" s="234" t="s">
+    <row r="76" spans="2:18">
+      <c r="B76" s="239" t="s">
         <v>327</v>
       </c>
-      <c r="C80" s="234" t="s">
+      <c r="C76" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F80" s="240">
+      <c r="D76" s="223"/>
+      <c r="E76" s="223"/>
+      <c r="F76" s="246">
         <f>F43/F8</f>
         <v>1.6661444856552909</v>
       </c>
-      <c r="G80" s="240">
-        <f t="shared" ref="G80:R80" si="44">G43/G8</f>
+      <c r="G76" s="246">
+        <f t="shared" ref="G76:R76" si="44">G43/G8</f>
         <v>2.0475133403168519</v>
       </c>
-      <c r="H80" s="240">
+      <c r="H76" s="246">
         <f t="shared" si="44"/>
         <v>2.2235508342904517</v>
       </c>
-      <c r="I80" s="240">
+      <c r="I76" s="246">
         <f t="shared" si="44"/>
         <v>2.008956606672172</v>
       </c>
-      <c r="J80" s="240">
+      <c r="J76" s="246">
         <f t="shared" si="44"/>
         <v>1.2327774172539856</v>
       </c>
-      <c r="K80" s="240">
+      <c r="K76" s="246">
         <f t="shared" si="44"/>
         <v>0.83941105340012145</v>
       </c>
-      <c r="L80" s="240">
+      <c r="L76" s="246">
         <f t="shared" si="44"/>
         <v>0.4281806101578452</v>
       </c>
-      <c r="M80" s="240">
+      <c r="M76" s="246">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="N80" s="240">
+      <c r="N76" s="246">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O80" s="240">
+      <c r="O76" s="246">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="P80" s="240">
+      <c r="P76" s="246">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="240">
+      <c r="Q76" s="246">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="R80" s="240">
+      <c r="R76" s="246">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:18">
-      <c r="B81" s="234" t="s">
+    <row r="77" spans="2:18">
+      <c r="B77" s="239" t="s">
         <v>328</v>
       </c>
-      <c r="C81" s="234" t="s">
+      <c r="C77" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F81" s="240">
+      <c r="D77" s="223"/>
+      <c r="E77" s="223"/>
+      <c r="F77" s="246">
         <f>MAX(F43-F39,0)/F8</f>
         <v>0.99968669139317468</v>
       </c>
-      <c r="G81" s="240">
-        <f t="shared" ref="G81:R81" si="45">MAX(G43-G39,0)/G8</f>
+      <c r="G77" s="246">
+        <f t="shared" ref="G77:R77" si="45">MAX(G43-G39,0)/G8</f>
         <v>0.87920664638182555</v>
       </c>
-      <c r="H81" s="240">
+      <c r="H77" s="246">
         <f t="shared" si="45"/>
         <v>0.27049046332672039</v>
       </c>
-      <c r="I81" s="240">
+      <c r="I77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="J81" s="240">
+      <c r="J77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="K81" s="240">
+      <c r="K77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="L81" s="240">
+      <c r="L77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M81" s="240">
+      <c r="M77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N81" s="240">
+      <c r="N77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="O81" s="240">
+      <c r="O77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="P81" s="240">
+      <c r="P77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="240">
+      <c r="Q77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="R81" s="240">
+      <c r="R77" s="246">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:18">
-      <c r="B82" s="234" t="s">
+    <row r="78" spans="2:18">
+      <c r="B78" s="239" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="234" t="s">
+      <c r="C78" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="F82" s="240">
+      <c r="D78" s="223"/>
+      <c r="E78" s="223"/>
+      <c r="F78" s="246">
         <f>IFERROR(F10/-F11,"Inf")</f>
         <v>6.0943234382197318</v>
       </c>
-      <c r="G82" s="240">
-        <f t="shared" ref="G82:R82" si="46">IFERROR(G10/-G11,"Inf")</f>
+      <c r="G78" s="246">
+        <f t="shared" ref="G78:R78" si="46">IFERROR(G10/-G11,"Inf")</f>
         <v>4.3271341208186129</v>
       </c>
-      <c r="H82" s="240">
+      <c r="H78" s="246">
         <f t="shared" si="46"/>
         <v>3.7561950279365095</v>
       </c>
-      <c r="I82" s="240">
+      <c r="I78" s="246">
         <f t="shared" si="46"/>
         <v>4.367240551411621</v>
       </c>
-      <c r="J82" s="240">
+      <c r="J78" s="246">
         <f t="shared" si="46"/>
         <v>6.1499919670855991</v>
       </c>
-      <c r="K82" s="240">
+      <c r="K78" s="246">
         <f t="shared" si="46"/>
         <v>8.0498813509535729</v>
       </c>
-      <c r="L82" s="240">
+      <c r="L78" s="246">
         <f t="shared" si="46"/>
         <v>11.73074300168626</v>
       </c>
-      <c r="M82" s="240">
+      <c r="M78" s="246">
         <f t="shared" si="46"/>
         <v>23.625493683096572</v>
       </c>
-      <c r="N82" s="240" t="str">
+      <c r="N78" s="246" t="str">
         <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="O82" s="240" t="str">
+      <c r="O78" s="246" t="str">
         <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="P82" s="240" t="str">
+      <c r="P78" s="246" t="str">
         <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="Q82" s="240" t="str">
+      <c r="Q78" s="246" t="str">
         <f t="shared" si="46"/>
         <v>Inf</v>
       </c>
-      <c r="R82" s="240" t="str">
+      <c r="R78" s="246" t="str">
         <f t="shared" si="46"/>
         <v>Inf</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" s="223"/>
+      <c r="C79" s="223"/>
+      <c r="D79" s="223"/>
+      <c r="E79" s="223"/>
+      <c r="F79" s="223"/>
+      <c r="G79" s="223"/>
+      <c r="H79" s="223"/>
+      <c r="I79" s="223"/>
+      <c r="J79" s="223"/>
+      <c r="K79" s="223"/>
+      <c r="L79" s="223"/>
+      <c r="M79" s="223"/>
+      <c r="N79" s="223"/>
+      <c r="O79" s="223"/>
+      <c r="P79" s="223"/>
+      <c r="Q79" s="223"/>
+      <c r="R79" s="223"/>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="B80" s="223"/>
+      <c r="C80" s="223"/>
+      <c r="D80" s="223"/>
+      <c r="E80" s="223"/>
+      <c r="F80" s="223"/>
+      <c r="G80" s="223"/>
+      <c r="H80" s="223"/>
+      <c r="I80" s="223"/>
+      <c r="J80" s="223"/>
+      <c r="K80" s="223"/>
+      <c r="L80" s="223"/>
+      <c r="M80" s="223"/>
+      <c r="N80" s="223"/>
+      <c r="O80" s="223"/>
+      <c r="P80" s="223"/>
+      <c r="Q80" s="223"/>
+      <c r="R80" s="223"/>
+    </row>
+    <row r="81" spans="2:18" ht="20.25">
+      <c r="B81" s="179" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" s="250"/>
+      <c r="D81" s="251"/>
+      <c r="E81" s="251"/>
+      <c r="F81" s="251"/>
+      <c r="G81" s="251"/>
+      <c r="H81" s="251"/>
+      <c r="I81" s="251"/>
+      <c r="J81" s="251"/>
+      <c r="K81" s="251"/>
+      <c r="L81" s="251"/>
+      <c r="M81" s="251"/>
+      <c r="N81" s="251"/>
+      <c r="O81" s="251"/>
+      <c r="P81" s="251"/>
+      <c r="Q81" s="251"/>
+      <c r="R81" s="251"/>
+    </row>
+    <row r="82" spans="2:18">
+      <c r="B82" s="249" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="249" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="223"/>
+      <c r="E82" s="223"/>
+      <c r="F82" s="252">
+        <f>IFERROR(F36/F43,"Inf")</f>
+        <v>2.9382848259569432</v>
+      </c>
+      <c r="G82" s="252">
+        <f t="shared" ref="G82:R82" si="47">IFERROR(G36/G43,"Inf")</f>
+        <v>2.9727869081259999</v>
+      </c>
+      <c r="H82" s="252">
+        <f t="shared" si="47"/>
+        <v>2.8099894432667223</v>
+      </c>
+      <c r="I82" s="252">
+        <f t="shared" si="47"/>
+        <v>2.8124496404871135</v>
+      </c>
+      <c r="J82" s="252">
+        <f t="shared" si="47"/>
+        <v>3.4053383564277095</v>
+      </c>
+      <c r="K82" s="252">
+        <f t="shared" si="47"/>
+        <v>4.617424602085757</v>
+      </c>
+      <c r="L82" s="252">
+        <f t="shared" si="47"/>
+        <v>8.9974516803689646</v>
+      </c>
+      <c r="M82" s="252" t="str">
+        <f t="shared" si="47"/>
+        <v>Inf</v>
+      </c>
+      <c r="N82" s="252" t="str">
+        <f t="shared" si="47"/>
+        <v>Inf</v>
+      </c>
+      <c r="O82" s="252" t="str">
+        <f t="shared" si="47"/>
+        <v>Inf</v>
+      </c>
+      <c r="P82" s="252" t="str">
+        <f t="shared" si="47"/>
+        <v>Inf</v>
+      </c>
+      <c r="Q82" s="252" t="str">
+        <f t="shared" si="47"/>
+        <v>Inf</v>
+      </c>
+      <c r="R82" s="252" t="str">
+        <f t="shared" si="47"/>
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
+      <c r="B83" s="249" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="249" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="223"/>
+      <c r="E83" s="223"/>
+      <c r="F83" s="252">
+        <f>F76</f>
+        <v>1.6661444856552909</v>
+      </c>
+      <c r="G83" s="252">
+        <f t="shared" ref="G83:R83" si="48">G76</f>
+        <v>2.0475133403168519</v>
+      </c>
+      <c r="H83" s="252">
+        <f t="shared" si="48"/>
+        <v>2.2235508342904517</v>
+      </c>
+      <c r="I83" s="252">
+        <f t="shared" si="48"/>
+        <v>2.008956606672172</v>
+      </c>
+      <c r="J83" s="252">
+        <f t="shared" si="48"/>
+        <v>1.2327774172539856</v>
+      </c>
+      <c r="K83" s="252">
+        <f t="shared" si="48"/>
+        <v>0.83941105340012145</v>
+      </c>
+      <c r="L83" s="252">
+        <f t="shared" si="48"/>
+        <v>0.4281806101578452</v>
+      </c>
+      <c r="M83" s="252">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="252">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="252">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="252">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="252">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="252">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
+      <c r="B84" s="249" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" s="249" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="223"/>
+      <c r="E84" s="223"/>
+      <c r="F84" s="252">
+        <f>F77</f>
+        <v>0.99968669139317468</v>
+      </c>
+      <c r="G84" s="252">
+        <f t="shared" ref="G84:R84" si="49">G77</f>
+        <v>0.87920664638182555</v>
+      </c>
+      <c r="H84" s="252">
+        <f t="shared" si="49"/>
+        <v>0.27049046332672039</v>
+      </c>
+      <c r="I84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="252">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="249" t="s">
+        <v>333</v>
+      </c>
+      <c r="C85" s="249" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="223"/>
+      <c r="E85" s="223"/>
+      <c r="F85" s="252">
+        <f>F78</f>
+        <v>6.0943234382197318</v>
+      </c>
+      <c r="G85" s="252">
+        <f t="shared" ref="G85:R85" si="50">G78</f>
+        <v>4.3271341208186129</v>
+      </c>
+      <c r="H85" s="252">
+        <f t="shared" si="50"/>
+        <v>3.7561950279365095</v>
+      </c>
+      <c r="I85" s="252">
+        <f t="shared" si="50"/>
+        <v>4.367240551411621</v>
+      </c>
+      <c r="J85" s="252">
+        <f t="shared" si="50"/>
+        <v>6.1499919670855991</v>
+      </c>
+      <c r="K85" s="252">
+        <f t="shared" si="50"/>
+        <v>8.0498813509535729</v>
+      </c>
+      <c r="L85" s="252">
+        <f t="shared" si="50"/>
+        <v>11.73074300168626</v>
+      </c>
+      <c r="M85" s="252">
+        <f t="shared" si="50"/>
+        <v>23.625493683096572</v>
+      </c>
+      <c r="N85" s="252" t="str">
+        <f t="shared" si="50"/>
+        <v>Inf</v>
+      </c>
+      <c r="O85" s="252" t="str">
+        <f t="shared" si="50"/>
+        <v>Inf</v>
+      </c>
+      <c r="P85" s="252" t="str">
+        <f t="shared" si="50"/>
+        <v>Inf</v>
+      </c>
+      <c r="Q85" s="252" t="str">
+        <f t="shared" si="50"/>
+        <v>Inf</v>
+      </c>
+      <c r="R85" s="252" t="str">
+        <f t="shared" si="50"/>
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="249" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" s="249" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="223"/>
+      <c r="E86" s="223"/>
+      <c r="F86" s="252">
+        <f>IFERROR(F87/F88,"Inf")</f>
+        <v>7.1895359420692513</v>
+      </c>
+      <c r="G86" s="252">
+        <f t="shared" ref="G86:R86" si="51">IFERROR(G87/G88,"Inf")</f>
+        <v>2.9005287851025314</v>
+      </c>
+      <c r="H86" s="252">
+        <f t="shared" si="51"/>
+        <v>5.664779903478955</v>
+      </c>
+      <c r="I86" s="252">
+        <f t="shared" si="51"/>
+        <v>4.9781590390796531</v>
+      </c>
+      <c r="J86" s="252">
+        <f t="shared" si="51"/>
+        <v>2.2513613195496598</v>
+      </c>
+      <c r="K86" s="252">
+        <f t="shared" si="51"/>
+        <v>2.3200152129326974</v>
+      </c>
+      <c r="L86" s="252">
+        <f t="shared" si="51"/>
+        <v>1.6889405441283496</v>
+      </c>
+      <c r="M86" s="252">
+        <f t="shared" si="51"/>
+        <v>2.4530520987575</v>
+      </c>
+      <c r="N86" s="252" t="str">
+        <f t="shared" si="51"/>
+        <v>Inf</v>
+      </c>
+      <c r="O86" s="252" t="str">
+        <f t="shared" si="51"/>
+        <v>Inf</v>
+      </c>
+      <c r="P86" s="252" t="str">
+        <f t="shared" si="51"/>
+        <v>Inf</v>
+      </c>
+      <c r="Q86" s="252" t="str">
+        <f t="shared" si="51"/>
+        <v>Inf</v>
+      </c>
+      <c r="R86" s="252" t="str">
+        <f t="shared" si="51"/>
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
+      <c r="B87" s="249" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="223"/>
+      <c r="E87" s="223"/>
+      <c r="F87" s="253">
+        <f>F22+F26+F28+(-F11)</f>
+        <v>2516.3375797242384</v>
+      </c>
+      <c r="G87" s="253">
+        <f t="shared" ref="G87:R87" si="52">G22+G26+G28+(-G11)</f>
+        <v>1015.1850747858862</v>
+      </c>
+      <c r="H87" s="253">
+        <f t="shared" si="52"/>
+        <v>1982.6729662176344</v>
+      </c>
+      <c r="I87" s="253">
+        <f t="shared" si="52"/>
+        <v>1742.3556636778787</v>
+      </c>
+      <c r="J87" s="253">
+        <f t="shared" si="52"/>
+        <v>3323.3258115408571</v>
+      </c>
+      <c r="K87" s="253">
+        <f t="shared" si="52"/>
+        <v>3424.6686097676038</v>
+      </c>
+      <c r="L87" s="253">
+        <f t="shared" si="52"/>
+        <v>2493.1136800299801</v>
+      </c>
+      <c r="M87" s="253">
+        <f t="shared" si="52"/>
+        <v>3621.0497560142749</v>
+      </c>
+      <c r="N87" s="253">
+        <f t="shared" si="52"/>
+        <v>3791.0022017406918</v>
+      </c>
+      <c r="O87" s="253">
+        <f t="shared" si="52"/>
+        <v>208.86872097749233</v>
+      </c>
+      <c r="P87" s="253">
+        <f t="shared" si="52"/>
+        <v>1200.8382513296954</v>
+      </c>
+      <c r="Q87" s="253">
+        <f t="shared" si="52"/>
+        <v>1254.1466463239979</v>
+      </c>
+      <c r="R87" s="253">
+        <f t="shared" si="52"/>
+        <v>11.154299395345333</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="B88" s="249" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="223"/>
+      <c r="E88" s="223"/>
+      <c r="F88" s="253">
+        <f>(-F29)+(-F11)</f>
+        <v>350.00000000000006</v>
+      </c>
+      <c r="G88" s="253">
+        <f t="shared" ref="G88:R88" si="53">(-G29)+(-G11)</f>
+        <v>350.00000000000006</v>
+      </c>
+      <c r="H88" s="253">
+        <f t="shared" si="53"/>
+        <v>350.00000000000006</v>
+      </c>
+      <c r="I88" s="253">
+        <f t="shared" si="53"/>
+        <v>350.00000000000006</v>
+      </c>
+      <c r="J88" s="253">
+        <f t="shared" si="53"/>
+        <v>1476.1405833363178</v>
+      </c>
+      <c r="K88" s="253">
+        <f t="shared" si="53"/>
+        <v>1476.1405833363178</v>
+      </c>
+      <c r="L88" s="253">
+        <f t="shared" si="53"/>
+        <v>1476.1405833363178</v>
+      </c>
+      <c r="M88" s="253">
+        <f t="shared" si="53"/>
+        <v>1476.1405833363178</v>
+      </c>
+      <c r="N88" s="253">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="253">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="253">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="253">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="253">
+        <f t="shared" si="53"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -48235,6 +48863,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -50016,7 +50645,7 @@
         <v>17316.900277746696</v>
       </c>
       <c r="D4" s="167">
-        <f t="dataTable" ref="D4:P4" dt2D="0" dtr="1" r1="C3"/>
+        <f t="dataTable" ref="D4:P4" dt2D="0" dtr="1" r1="C3" ca="1"/>
         <v>19021.092413146769</v>
       </c>
       <c r="E4" s="167">
@@ -50141,7 +50770,7 @@
         <v>17316.900277746696</v>
       </c>
       <c r="D8" s="167">
-        <f t="dataTable" ref="D8:P8" dt2D="0" dtr="1" r1="C7" ca="1"/>
+        <f t="dataTable" ref="D8:P8" dt2D="0" dtr="1" r1="C7"/>
         <v>17097.622890680002</v>
       </c>
       <c r="E8" s="167">
